--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -635,7 +635,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>(T) HEREDIA CAHUAYA, SUSAN NAYELLI</t>
+          <t>HEREDIA CAHUAYA, SUSAN NAYELLI</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -653,7 +653,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -713,12 +713,12 @@
       <c r="E8" s="1" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>18:45-18:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -857,12 +857,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HEREDIA CAHUAYA, SUSAN NAYELLI</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-10:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -871,12 +871,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -885,26 +885,18 @@
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="1" t="n"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -1439,7 +1431,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -1473,7 +1465,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1680,7 +1672,7 @@
       <c r="E5" s="7" t="n"/>
       <c r="F5" s="8" t="inlineStr">
         <is>
-          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
         </is>
       </c>
       <c r="G5" s="8" t="inlineStr">
@@ -2034,12 +2026,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>18:00-18:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -2052,16 +2044,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="1" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -3750,7 +3734,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>(T) HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -3988,40 +3972,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-10:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4767,7 +4743,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>(T) ERIQUE CALLE, MARIA ANTONIETA</t>
+          <t>ERIQUE CALLE, MARIA ANTONIETA</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -4785,7 +4761,7 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>(T) RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr">
@@ -4949,12 +4925,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ERIQUE CALLE, MARIA ANTONIETA</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-10:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -4963,12 +4939,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS, ANGELICA LOURDES</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -4977,26 +4953,18 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>VEGA CARDENAS, ANGELICA LOURDES</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="1" t="n"/>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>18:45-18:45</t>
-        </is>
-      </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
@@ -5784,7 +5752,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>(T) NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -6022,40 +5990,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:00-10:00</t>
+          <t>10:15-19:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:00</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>10:15-19:15</t>
+          <t>19:15-22:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -6825,7 +6785,7 @@
       <c r="A5" s="7" t="n"/>
       <c r="B5" s="8" t="inlineStr">
         <is>
-          <t>(T) BRANCACHO RAMIREZ, BRINDY</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C5" s="8" t="inlineStr">
@@ -7079,40 +7039,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:00-10:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>14:15-22:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>14:15-22:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId1"/>
@@ -15,7 +15,7 @@
     <sheet name="7" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -45,7 +45,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -60,6 +60,60 @@
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -116,7 +170,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -136,14 +190,35 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -225,10 +300,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -266,71 +341,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -358,7 +433,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -381,11 +456,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -394,13 +469,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -410,7 +485,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -419,7 +494,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -428,7 +503,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -436,10 +511,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -507,7 +582,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -515,160 +590,160 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>UBICACIÓN DIARIA DE CAJEROS</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="17" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>DOMINGO 20 DE OCTUBRE 2024</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="17" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A) 1er Turno</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A)</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>06:30-10:15</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>22:15-22:45</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>21:45-22:45</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>HEREDIA CAHUAYA, SUSAN NAYELLI</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>ARAUJO, ROMINA</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>10:00-19:00</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>(T) HURTADO SAMPLINI, JACK FERNANDO</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>18:45-22:00</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -682,26 +757,26 @@
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -710,26 +785,26 @@
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="1" t="n"/>
+      <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:30-18:45</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -738,223 +813,239 @@
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>15:30-19:15</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:00-21:15</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:00-18:00</t>
+          <t>12:30-21:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:15-13:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:15</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="1" t="n"/>
+      <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>14:30-18:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="1" t="n"/>
+      <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="n"/>
@@ -962,10 +1053,10 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -974,27 +1065,27 @@
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>17:00-22:00</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -1002,31 +1093,39 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>17:00-22:00</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -1034,31 +1133,31 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="n"/>
@@ -1066,23 +1165,31 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>18:00-20:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="n"/>
@@ -1090,23 +1197,23 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -1114,23 +1221,23 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="1" t="n"/>
+      <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
@@ -1138,23 +1245,23 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="E32" s="1" t="n"/>
+      <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="n"/>
@@ -1162,23 +1269,23 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -1186,23 +1293,23 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="1" t="n"/>
+      <c r="E36" s="14" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="n"/>
@@ -1210,23 +1317,23 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="14" t="n"/>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="14" t="n"/>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="F39" s="3" t="n"/>
@@ -1234,7 +1341,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="14" t="n"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
@@ -1244,27 +1351,27 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>CAJA RAPIDA</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-      <c r="H41" s="10" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="17" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="F42" s="3" t="n"/>
@@ -1272,17 +1379,17 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="1" t="n"/>
+      <c r="E43" s="14" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -1292,11 +1399,11 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>12:00-20:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -1304,71 +1411,55 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>13:45-21:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>18:30-22:15</t>
-        </is>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="A47" s="14" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="1" t="n"/>
+      <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="F48" s="3" t="n"/>
@@ -1376,23 +1467,23 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="1" t="n"/>
+      <c r="E49" s="14" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="n"/>
@@ -1400,7 +1491,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="14" t="n"/>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
@@ -1410,21 +1501,21 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>SELF CHECK OUT</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
-      <c r="H52" s="10" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="17" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -1436,86 +1527,86 @@
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
+      <c r="D53" s="3" t="n"/>
+      <c r="E53" s="14" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="14" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
           <t>10:45-14:30</t>
         </is>
       </c>
-      <c r="D53" s="3" t="n"/>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="13" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
-        <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G53" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
-      <c r="H53" s="3" t="n"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
+      <c r="H54" s="12" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>10:45-14:30</t>
-        </is>
-      </c>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
-        <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
-      <c r="H54" s="8" t="n"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1525,6 +1616,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56"/>
 </worksheet>
 </file>
 
@@ -1532,7 +1624,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -1540,176 +1632,160 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>UBICACIÓN DIARIA DE CAJEROS</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="17" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>DOMINGO 20 DE OCTUBRE 2024</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="17" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A) 1er Turno</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A)</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>06:30-10:15</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>(T) PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>15:00-18:15</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>21:45-22:45</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>(T) ALVITE CORNEJO, ANGIE LUCERO</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>10:00-13:15</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>(T) VEGA CARDENAS, ANGELICA LOURDES</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>13:00-15:15</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="3" t="inlineStr">
-        <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
-        </is>
-      </c>
-      <c r="G6" s="3" t="inlineStr">
-        <is>
-          <t>21:30-22:45</t>
-        </is>
-      </c>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>13:00-22:00</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -1723,7 +1799,7 @@
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
@@ -1733,25 +1809,25 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="1" t="n"/>
+      <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
           <t>ROA ZARATE, ELIZABETH LUCY</t>
@@ -1759,18 +1835,18 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-21:45</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -1779,223 +1855,255 @@
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>17:30-21:15</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:30</t>
+          <t>13:30-17:15</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>17:45-21:30</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>09:15-13:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="1" t="n"/>
+      <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>15:15-19:00</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>10:30-14:15</t>
+        </is>
+      </c>
+      <c r="D16" s="3" t="n"/>
+      <c r="E16" s="14" t="n"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>19:00-21:45</t>
+        </is>
+      </c>
+      <c r="H16" s="3" t="n"/>
+    </row>
+    <row r="17" ht="19.5" customHeight="1">
+      <c r="A17" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>11:30-15:15</t>
+        </is>
+      </c>
+      <c r="D17" s="3" t="n"/>
+      <c r="E17" s="14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
+      <c r="H17" s="3" t="n"/>
+    </row>
+    <row r="18" ht="19.5" customHeight="1">
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
           <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>16:30-20:15</t>
-        </is>
-      </c>
-      <c r="D16" s="3" t="n"/>
-      <c r="E16" s="1" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
-      <c r="H16" s="3" t="n"/>
-    </row>
-    <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>VEGA CARDENAS, ANGELICA LOURDES</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>11:30-13:00</t>
-        </is>
-      </c>
-      <c r="D17" s="3" t="n"/>
-      <c r="E17" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
-      <c r="H17" s="3" t="n"/>
-    </row>
-    <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
-        </is>
-      </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>14:30-15:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="n"/>
@@ -2003,39 +2111,31 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -2043,17 +2143,17 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -2063,11 +2163,11 @@
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -2075,31 +2175,31 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="n"/>
@@ -2107,31 +2207,23 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:00</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="n"/>
@@ -2139,23 +2231,23 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -2163,23 +2255,23 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="1" t="n"/>
+      <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
@@ -2187,23 +2279,23 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="E32" s="1" t="n"/>
+      <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="n"/>
@@ -2211,23 +2303,23 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -2235,23 +2327,23 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="1" t="n"/>
+      <c r="E36" s="14" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="n"/>
@@ -2259,23 +2351,23 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="14" t="n"/>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="14" t="n"/>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="F39" s="3" t="n"/>
@@ -2283,7 +2375,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="14" t="n"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
@@ -2293,27 +2385,27 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>CAJA RAPIDA</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-      <c r="H41" s="10" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="17" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="F42" s="3" t="n"/>
@@ -2321,17 +2413,17 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="1" t="n"/>
+      <c r="E43" s="14" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -2345,7 +2437,7 @@
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -2353,31 +2445,31 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:45-19:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="3" t="n"/>
@@ -2385,31 +2477,23 @@
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="A47" s="14" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="1" t="n"/>
+      <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="F48" s="3" t="n"/>
@@ -2417,23 +2501,23 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="1" t="n"/>
+      <c r="E49" s="14" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="n"/>
@@ -2441,7 +2525,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="14" t="n"/>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
@@ -2451,21 +2535,21 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>SELF CHECK OUT</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
-      <c r="H52" s="10" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="17" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -2481,25 +2565,25 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>18:15-22:00</t>
         </is>
       </c>
-      <c r="H53" s="3" t="n"/>
+      <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -2515,25 +2599,25 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" s="13" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
-      <c r="G54" s="8" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>19:00-22:45</t>
         </is>
       </c>
-      <c r="H54" s="8" t="n"/>
+      <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -2549,14 +2633,14 @@
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2566,6 +2650,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56"/>
 </worksheet>
 </file>
 
@@ -2573,7 +2658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -2581,160 +2666,160 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>UBICACIÓN DIARIA DE CAJEROS</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="17" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>DOMINGO 20 DE OCTUBRE 2024</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="17" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A) 1er Turno</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A)</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>06:30-10:15</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>20:45-22:45</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>21:30-22:45</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>(T) SOTO VELAZCO, EMIR ALESSANDRO</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>10:00-13:15</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>ARAUJO, ROMINA</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>10:00-19:00</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>13:00-21:00</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>18:45-21:45</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
@@ -2748,54 +2833,54 @@
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="1" t="n"/>
+      <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-21:30</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -2804,41 +2889,33 @@
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
@@ -2848,147 +2925,155 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>18:00-20:45</t>
+        </is>
+      </c>
+      <c r="H11" s="3" t="n"/>
+    </row>
+    <row r="12" ht="19.5" customHeight="1">
+      <c r="A12" s="14" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>14:00-17:45</t>
+        </is>
+      </c>
+      <c r="D12" s="3" t="n"/>
+      <c r="E12" s="14" t="n"/>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
+      <c r="H12" s="3" t="n"/>
+    </row>
+    <row r="13" ht="19.5" customHeight="1">
+      <c r="A13" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>09:30-13:15</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="n"/>
+      <c r="E13" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
+      <c r="H13" s="3" t="n"/>
+    </row>
+    <row r="14" ht="19.5" customHeight="1">
+      <c r="A14" s="14" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
           <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>14:45-18:30</t>
-        </is>
-      </c>
-      <c r="H11" s="3" t="n"/>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>10:15-14:00</t>
-        </is>
-      </c>
-      <c r="D12" s="3" t="n"/>
-      <c r="E12" s="1" t="n"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
-      <c r="H12" s="3" t="n"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>10:30-14:15</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n"/>
-      <c r="E13" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
-      <c r="H13" s="3" t="n"/>
-    </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
-        </is>
-      </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="1" t="n"/>
+      <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS, ANGELICA LOURDES</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="1" t="n"/>
+      <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="n"/>
@@ -2996,39 +3081,39 @@
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="n"/>
@@ -3036,39 +3121,39 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -3076,31 +3161,31 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="n"/>
       <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -3108,31 +3193,31 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="n"/>
@@ -3140,31 +3225,31 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>19:15-22:00</t>
+          <t>18:00-18:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="n"/>
@@ -3172,23 +3257,23 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -3196,23 +3281,23 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="1" t="n"/>
+      <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
@@ -3220,23 +3305,23 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="E32" s="1" t="n"/>
+      <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="n"/>
@@ -3244,23 +3329,23 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -3268,23 +3353,23 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="1" t="n"/>
+      <c r="E36" s="14" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="n"/>
@@ -3292,23 +3377,23 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="14" t="n"/>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="14" t="n"/>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="F39" s="3" t="n"/>
@@ -3316,7 +3401,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="14" t="n"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
@@ -3326,27 +3411,27 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>CAJA RAPIDA</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-      <c r="H41" s="10" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="17" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="F42" s="3" t="n"/>
@@ -3354,17 +3439,17 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="1" t="n"/>
+      <c r="E43" s="14" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -3374,11 +3459,11 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -3386,31 +3471,31 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>12:00-13:00</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="3" t="n"/>
@@ -3418,31 +3503,31 @@
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>13:45-20:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="1" t="n"/>
+      <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="F48" s="3" t="n"/>
@@ -3450,23 +3535,23 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="1" t="n"/>
+      <c r="E49" s="14" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="n"/>
@@ -3474,7 +3559,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="14" t="n"/>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
@@ -3484,21 +3569,21 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>SELF CHECK OUT</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
-      <c r="H52" s="10" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="17" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -3514,82 +3599,82 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="14" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>10:45-14:30</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="13" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>19:00-22:45</t>
         </is>
       </c>
-      <c r="H53" s="3" t="n"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="H54" s="12" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>14:30-18:15</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
-        <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
-      <c r="H54" s="8" t="n"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3599,6 +3684,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56"/>
 </worksheet>
 </file>
 
@@ -3606,7 +3692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -3614,240 +3700,232 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>UBICACIÓN DIARIA DE CAJEROS</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="17" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>DOMINGO 20 DE OCTUBRE 2024</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="17" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A) 1er Turno</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A)</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>06:30-10:15</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>(T) SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>16:45-19:45</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>22:15-22:45</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>10:00-13:45</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="inlineStr">
-        <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
-        </is>
-      </c>
-      <c r="G5" s="8" t="inlineStr">
-        <is>
-          <t>19:30-22:45</t>
-        </is>
-      </c>
-      <c r="H5" s="8" t="n"/>
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>ARAUJO, ROMINA</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>10:00-19:00</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>(T) MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>13:30-17:00</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>18:45-22:30</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="14" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
           <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>07:00-10:45</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>16:00-16:45</t>
-        </is>
-      </c>
-      <c r="H7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>11:00-14:45</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
-      <c r="H8" s="3" t="n"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="n">
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>08:00-11:45</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>08:00-11:45</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
           <t>PEREZ GORMAS, ANTHONY</t>
@@ -3855,16 +3933,16 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -3873,75 +3951,75 @@
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>13:45-19:30</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:15-13:30</t>
+          <t>12:30-16:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="n"/>
@@ -3949,119 +4027,135 @@
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>13:45-22:15</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="1" t="n"/>
+      <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="1" t="n"/>
+      <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:30-20:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="n"/>
@@ -4069,31 +4163,39 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>16:45-20:30</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -4101,31 +4203,39 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>17:15-21:00</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>19:15-22:00</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -4133,23 +4243,31 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="n"/>
@@ -4157,23 +4275,31 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>18:15-21:00</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="n"/>
@@ -4181,23 +4307,23 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -4205,23 +4331,23 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="1" t="n"/>
+      <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
@@ -4229,23 +4355,23 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="E32" s="1" t="n"/>
+      <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="n"/>
@@ -4253,23 +4379,23 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -4277,23 +4403,23 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="1" t="n"/>
+      <c r="E36" s="14" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="n"/>
@@ -4301,23 +4427,23 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="14" t="n"/>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="14" t="n"/>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="F39" s="3" t="n"/>
@@ -4325,7 +4451,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="14" t="n"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
@@ -4335,27 +4461,27 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>CAJA RAPIDA</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-      <c r="H41" s="10" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="17" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="F42" s="3" t="n"/>
@@ -4363,31 +4489,31 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="1" t="n"/>
+      <c r="E43" s="14" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>11:00-20:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -4395,39 +4521,31 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="A45" s="14" t="n"/>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS, ANGELICA LOURDES</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="3" t="n"/>
@@ -4435,31 +4553,23 @@
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="A47" s="14" t="n"/>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="1" t="n"/>
+      <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="F48" s="3" t="n"/>
@@ -4467,23 +4577,23 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="1" t="n"/>
+      <c r="E49" s="14" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="n"/>
@@ -4491,7 +4601,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="14" t="n"/>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
@@ -4501,21 +4611,21 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>SELF CHECK OUT</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
-      <c r="H52" s="10" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="17" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -4531,82 +4641,82 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="n"/>
+    </row>
+    <row r="54" ht="18.75" customHeight="1">
+      <c r="A54" s="14" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>10:45-14:30</t>
+        </is>
+      </c>
+      <c r="D54" s="3" t="n"/>
+      <c r="E54" s="13" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>19:00-22:45</t>
         </is>
       </c>
-      <c r="H53" s="3" t="n"/>
-    </row>
-    <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="H54" s="12" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
-      <c r="C54" s="3" t="inlineStr">
+      <c r="C55" s="3" t="inlineStr">
         <is>
           <t>14:30-18:15</t>
         </is>
       </c>
-      <c r="D54" s="3" t="n"/>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
-        <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
-        </is>
-      </c>
-      <c r="G54" s="8" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
-      <c r="H54" s="8" t="n"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4616,6 +4726,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56"/>
 </worksheet>
 </file>
 
@@ -4623,7 +4734,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -4631,208 +4742,200 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>UBICACIÓN DIARIA DE CAJEROS</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="17" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>DOMINGO 20 DE OCTUBRE 2024</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="17" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A) 1er Turno</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A)</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
         <is>
           <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
-      <c r="C4" s="3" t="inlineStr">
+      <c r="C4" s="8" t="inlineStr">
         <is>
           <t>06:30-10:15</t>
         </is>
       </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="3" t="n"/>
-      <c r="G4" s="3" t="n"/>
-      <c r="H4" s="3" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>21:45-22:45</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>ERIQUE CALLE, MARIA ANTONIETA</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>ARAUJO, ROMINA</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
         <is>
           <t>10:00-19:00</t>
         </is>
       </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:45</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>(T) BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>18:45-22:00</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>08:00-16:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
@@ -4842,11 +4945,11 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
       <c r="F9" s="3" t="n"/>
@@ -4854,44 +4957,44 @@
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:00-21:45</t>
+          <t>13:45-21:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-13:00</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -4902,10 +5005,10 @@
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -4914,32 +5017,32 @@
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:00-14:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
@@ -4950,30 +5053,30 @@
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS, ANGELICA LOURDES</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="1" t="n"/>
+      <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -4982,46 +5085,46 @@
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="1" t="n"/>
+      <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -5030,47 +5133,55 @@
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>15:30-19:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="F19" s="3" t="n"/>
@@ -5078,39 +5189,39 @@
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -5118,31 +5229,39 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -5150,23 +5269,31 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="n"/>
       <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18:15-21:00</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="n"/>
@@ -5174,23 +5301,31 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n"/>
+      <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="n"/>
       <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>18:15-18:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="n"/>
@@ -5198,23 +5333,23 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="n"/>
       <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -5222,23 +5357,23 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="1" t="n"/>
+      <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B31" s="3" t="n"/>
       <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
@@ -5246,23 +5381,23 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="E32" s="1" t="n"/>
+      <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="n"/>
       <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="n"/>
@@ -5270,23 +5405,23 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -5294,23 +5429,23 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="1" t="n"/>
+      <c r="E36" s="14" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="n"/>
@@ -5318,23 +5453,23 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="14" t="n"/>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="14" t="n"/>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="F39" s="3" t="n"/>
@@ -5342,7 +5477,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="14" t="n"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
@@ -5352,27 +5487,27 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>CAJA RAPIDA</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-      <c r="H41" s="10" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="17" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="F42" s="3" t="n"/>
@@ -5380,17 +5515,17 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="1" t="n"/>
+      <c r="E43" s="14" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -5400,11 +5535,11 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -5412,17 +5547,17 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
@@ -5432,11 +5567,11 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>11:45-20:45</t>
+          <t>07:00-16:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="3" t="n"/>
@@ -5444,23 +5579,31 @@
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
+      <c r="A47" s="14" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="1" t="n"/>
+      <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="F48" s="3" t="n"/>
@@ -5468,23 +5611,23 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="1" t="n"/>
+      <c r="E49" s="14" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="n"/>
@@ -5492,7 +5635,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="14" t="n"/>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
@@ -5502,21 +5645,21 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>SELF CHECK OUT</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
-      <c r="H52" s="10" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="17" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -5532,25 +5675,25 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>18:15-22:00</t>
         </is>
       </c>
-      <c r="H53" s="3" t="n"/>
+      <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -5566,25 +5709,25 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" s="13" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
-      <c r="G54" s="8" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>19:00-22:45</t>
         </is>
       </c>
-      <c r="H54" s="8" t="n"/>
+      <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -5600,14 +5743,14 @@
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5617,6 +5760,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56"/>
 </worksheet>
 </file>
 
@@ -5624,7 +5768,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -5632,254 +5776,278 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>UBICACIÓN DIARIA DE CAJEROS</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="17" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>DOMINGO 20 DE OCTUBRE 2024</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="17" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A) 1er Turno</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A)</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>06:30-10:15</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>06:30-15:00</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>(T) ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
         <is>
           <t>21:30-22:45</t>
         </is>
       </c>
-      <c r="H4" s="3" t="n"/>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>10:00-19:00</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>14:45-18:15</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>(T) ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>18:45-21:45</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="n"/>
+      <c r="E7" s="14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
+      <c r="H7" s="3" t="n"/>
+    </row>
+    <row r="8" ht="19.5" customHeight="1">
+      <c r="A8" s="14" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>10:45-14:30</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
+      <c r="H8" s="3" t="n"/>
+    </row>
+    <row r="9" ht="19.5" customHeight="1">
+      <c r="A9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>07:45-11:30</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="n"/>
+      <c r="E9" s="14" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>19:00-21:30</t>
+        </is>
+      </c>
+      <c r="H9" s="3" t="n"/>
+    </row>
+    <row r="10" ht="19.5" customHeight="1">
+      <c r="A10" s="14" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
           <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>07:00-16:00</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
-      <c r="H7" s="3" t="n"/>
-    </row>
-    <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>16:00-19:45</t>
-        </is>
-      </c>
-      <c r="D8" s="3" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
-      <c r="H8" s="3" t="n"/>
-    </row>
-    <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>08:00-11:45</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n"/>
-      <c r="E9" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
-      <c r="H9" s="3" t="n"/>
-    </row>
-    <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
-        </is>
-      </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>11:30-19:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="1" t="n"/>
+      <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
       <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -5887,25 +6055,25 @@
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
@@ -5915,91 +6083,107 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:15-22:00</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="1" t="n"/>
+      <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>15:30-19:15</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ERIQUE CALLE, MARIA ANTONIETA</t>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:45</t>
+          <t>14:30-14:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="1" t="n"/>
+      <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-19:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="F17" s="3" t="n"/>
@@ -6007,78 +6191,54 @@
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:00</t>
-        </is>
-      </c>
+      <c r="A18" s="14" t="n"/>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="A20" s="14" t="n"/>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -6087,7 +6247,7 @@
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -6095,39 +6255,31 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="A22" s="14" t="n"/>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="F23" s="3" t="n"/>
@@ -6135,30 +6287,22 @@
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="A24" s="14" t="n"/>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -6167,55 +6311,39 @@
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>HEREDIA CAHUAYA, SUSAN NAYELLI</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:45</t>
-        </is>
-      </c>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>18:00-18:45</t>
-        </is>
-      </c>
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:30-19:00</t>
+          <t>11:30-20:30</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="n"/>
@@ -6223,23 +6351,31 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>11:45-20:45</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -6247,23 +6383,31 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="1" t="n"/>
+      <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>12:00-20:45</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
@@ -6271,23 +6415,31 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="E32" s="1" t="n"/>
+      <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>12:45-21:45</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="n"/>
@@ -6295,23 +6447,23 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -6319,23 +6471,23 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="1" t="n"/>
+      <c r="E36" s="14" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="n"/>
@@ -6343,23 +6495,23 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="14" t="n"/>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="14" t="n"/>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="F39" s="3" t="n"/>
@@ -6367,7 +6519,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="14" t="n"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
@@ -6377,27 +6529,27 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>CAJA RAPIDA</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-      <c r="H41" s="10" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="17" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="F42" s="3" t="n"/>
@@ -6405,17 +6557,17 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="1" t="n"/>
+      <c r="E43" s="14" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -6425,11 +6577,11 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>08:15-17:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -6437,7 +6589,7 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
           <t>ROA ZARATE, ELIZABETH LUCY</t>
@@ -6445,31 +6597,31 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:30</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>12:15-21:15</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="3" t="n"/>
@@ -6477,23 +6629,31 @@
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
+      <c r="A47" s="14" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="1" t="n"/>
+      <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="F48" s="3" t="n"/>
@@ -6501,23 +6661,23 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="1" t="n"/>
+      <c r="E49" s="14" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="n"/>
@@ -6525,7 +6685,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="14" t="n"/>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
@@ -6535,21 +6695,21 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>SELF CHECK OUT</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
-      <c r="H52" s="10" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="17" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -6565,25 +6725,25 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>18:15-22:00</t>
         </is>
       </c>
-      <c r="H53" s="3" t="n"/>
+      <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -6599,25 +6759,25 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" s="13" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
         <is>
           <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
-      <c r="G54" s="8" t="inlineStr">
+      <c r="G54" s="12" t="inlineStr">
         <is>
           <t>19:00-22:45</t>
         </is>
       </c>
-      <c r="H54" s="8" t="n"/>
+      <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
+      <c r="A55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -6633,14 +6793,14 @@
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
+      <c r="E55" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="3" t="n"/>
-      <c r="G55" s="3" t="n"/>
-      <c r="H55" s="3" t="n"/>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
+      <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6650,6 +6810,7 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56"/>
 </worksheet>
 </file>
 
@@ -6657,7 +6818,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:H55"/>
   <sheetViews>
@@ -6665,205 +6826,221 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="7" min="1" max="1"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="2" max="2"/>
-    <col width="11.43357142857143" bestFit="1" customWidth="1" style="8" min="3" max="3"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="4" max="4"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="7" min="5" max="5"/>
-    <col width="43.71928571428572" bestFit="1" customWidth="1" style="8" min="6" max="6"/>
-    <col width="13.57642857142857" bestFit="1" customWidth="1" style="8" min="7" max="7"/>
-    <col width="8.719285714285713" bestFit="1" customWidth="1" style="8" min="8" max="8"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="4" min="1" max="1"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="2" max="2"/>
+    <col width="11.42578125" bestFit="1" customWidth="1" style="5" min="3" max="3"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="4" max="4"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="4" min="5" max="5"/>
+    <col width="43.7109375" bestFit="1" customWidth="1" style="5" min="6" max="6"/>
+    <col width="13.5703125" bestFit="1" customWidth="1" style="5" min="7" max="7"/>
+    <col width="8.7109375" bestFit="1" customWidth="1" style="5" min="8" max="8"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="14" t="inlineStr">
         <is>
           <t>UBICACIÓN DIARIA DE CAJEROS</t>
         </is>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="16" t="n"/>
+      <c r="C1" s="16" t="n"/>
+      <c r="D1" s="16" t="n"/>
+      <c r="E1" s="16" t="n"/>
+      <c r="F1" s="16" t="n"/>
+      <c r="G1" s="16" t="n"/>
+      <c r="H1" s="17" t="n"/>
     </row>
     <row r="2" ht="19.5" customHeight="1">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>DOMINGO 20 DE OCTUBRE 2024</t>
-        </is>
-      </c>
-      <c r="B2" s="9" t="n"/>
-      <c r="C2" s="9" t="n"/>
-      <c r="D2" s="9" t="n"/>
-      <c r="E2" s="9" t="n"/>
-      <c r="F2" s="9" t="n"/>
-      <c r="G2" s="9" t="n"/>
-      <c r="H2" s="10" t="n"/>
+      <c r="A2" s="14" t="inlineStr">
+        <is>
+          <t>FECHA</t>
+        </is>
+      </c>
+      <c r="B2" s="16" t="n"/>
+      <c r="C2" s="16" t="n"/>
+      <c r="D2" s="16" t="n"/>
+      <c r="E2" s="16" t="n"/>
+      <c r="F2" s="16" t="n"/>
+      <c r="G2" s="16" t="n"/>
+      <c r="H2" s="17" t="n"/>
     </row>
     <row r="3" ht="19.5" customHeight="1">
-      <c r="A3" s="1" t="inlineStr">
+      <c r="A3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="B3" s="2" t="inlineStr">
+      <c r="B3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A) 1er Turno</t>
         </is>
       </c>
-      <c r="C3" s="2" t="inlineStr">
+      <c r="C3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="D3" s="2" t="inlineStr">
+      <c r="D3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
-      <c r="E3" s="1" t="inlineStr">
+      <c r="E3" s="14" t="inlineStr">
         <is>
           <t>Nº Caja</t>
         </is>
       </c>
-      <c r="F3" s="2" t="inlineStr">
+      <c r="F3" s="15" t="inlineStr">
         <is>
           <t>CAJERO(A)</t>
         </is>
       </c>
-      <c r="G3" s="2" t="inlineStr">
+      <c r="G3" s="15" t="inlineStr">
         <is>
           <t>TURNO</t>
         </is>
       </c>
-      <c r="H3" s="2" t="inlineStr">
+      <c r="H3" s="15" t="inlineStr">
         <is>
           <t>REFRIG</t>
         </is>
       </c>
     </row>
     <row r="4" ht="19.5" customHeight="1">
-      <c r="A4" s="1" t="inlineStr">
+      <c r="A4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
-        <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>06:30-10:15</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="n"/>
-      <c r="E4" s="1" t="inlineStr">
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>06:30-15:30</t>
+        </is>
+      </c>
+      <c r="D4" s="8" t="n"/>
+      <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
-        <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
-        </is>
-      </c>
-      <c r="G4" s="3" t="inlineStr">
-        <is>
-          <t>22:00-22:45</t>
-        </is>
-      </c>
-      <c r="H4" s="3" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>21:45-22:45</t>
+        </is>
+      </c>
+      <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
-      <c r="A5" s="7" t="n"/>
-      <c r="B5" s="8" t="inlineStr">
-        <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
-        </is>
-      </c>
-      <c r="C5" s="8" t="inlineStr">
-        <is>
-          <t>10:00-13:45</t>
-        </is>
-      </c>
-      <c r="D5" s="8" t="n"/>
-      <c r="E5" s="7" t="n"/>
-      <c r="F5" s="8" t="n"/>
-      <c r="G5" s="8" t="n"/>
-      <c r="H5" s="8" t="n"/>
+      <c r="A5" s="11" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>(T) NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>15:15-18:45</t>
+        </is>
+      </c>
+      <c r="D5" s="12" t="n"/>
+      <c r="E5" s="11" t="n"/>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
+      <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
-      <c r="A6" s="1" t="n"/>
-      <c r="B6" s="3" t="inlineStr">
-        <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>13:30-22:15</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="n"/>
-      <c r="E6" s="1" t="n"/>
-      <c r="F6" s="3" t="n"/>
-      <c r="G6" s="3" t="n"/>
-      <c r="H6" s="3" t="n"/>
+      <c r="A6" s="9" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>18:30-22:00</t>
+        </is>
+      </c>
+      <c r="D6" s="10" t="n"/>
+      <c r="E6" s="9" t="n"/>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
+      <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-16:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
-      <c r="E7" s="1" t="n">
+      <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
-      <c r="A8" s="1" t="n"/>
+      <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
-      <c r="E8" s="1" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="E8" s="14" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>18:15-18:30</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
-      <c r="A9" s="1" t="n">
+      <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -6872,63 +7049,47 @@
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
-      <c r="E9" s="1" t="n">
+      <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>ERIQUE CALLE, MARIA ANTONIETA</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>15:45-19:15</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
-      <c r="A10" s="1" t="n"/>
+      <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>12:00-21:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
-      <c r="E10" s="1" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:00</t>
-        </is>
-      </c>
+      <c r="E10" s="14" t="n"/>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
-      <c r="A11" s="1" t="n">
+      <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>VEGA CARDENAS, ANGELICA LOURDES</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
-      <c r="E11" s="1" t="n">
+      <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
       <c r="F11" s="3" t="n"/>
@@ -6936,39 +7097,39 @@
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>12:30-21:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
-      <c r="E12" s="1" t="n"/>
+      <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
       <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
-      <c r="A13" s="1" t="n">
+      <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
-      <c r="E13" s="1" t="n">
+      <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
       <c r="F13" s="3" t="n"/>
@@ -6976,39 +7137,39 @@
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="1" t="n"/>
+      <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>HEREDIA CAHUAYA, SUSAN NAYELLI</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:45</t>
+          <t>19:00-21:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
-      <c r="E14" s="1" t="n"/>
+      <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
       <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
-      <c r="A15" s="1" t="n">
+      <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
-      <c r="E15" s="1" t="n">
+      <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
       <c r="F15" s="3" t="n"/>
@@ -7016,127 +7177,127 @@
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
-      <c r="A16" s="1" t="n"/>
+      <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:00-21:30</t>
+          <t>19:00-21:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
-      <c r="E16" s="1" t="n"/>
+      <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
       <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
-      <c r="A17" s="1" t="n">
+      <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
-      <c r="E17" s="1" t="n">
+      <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
-      <c r="A18" s="1" t="n"/>
+      <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:15-22:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
-      <c r="E18" s="1" t="n"/>
+      <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
       <c r="G18" s="3" t="n"/>
       <c r="H18" s="3" t="n"/>
     </row>
     <row r="19" ht="19.5" customHeight="1">
-      <c r="A19" s="1" t="n">
+      <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
-      <c r="E19" s="1" t="n">
+      <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:45-22:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
-      <c r="E20" s="1" t="n"/>
+      <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
       <c r="G20" s="3" t="n"/>
       <c r="H20" s="3" t="n"/>
     </row>
     <row r="21" ht="19.5" customHeight="1">
-      <c r="A21" s="1" t="n">
+      <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
-      <c r="E21" s="1" t="n">
+      <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
       <c r="F21" s="3" t="n"/>
@@ -7144,25 +7305,25 @@
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
-      <c r="A22" s="1" t="n"/>
+      <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
-      <c r="E22" s="1" t="n"/>
+      <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
       <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
-      <c r="A23" s="1" t="n">
+      <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
       <c r="B23" s="3" t="inlineStr">
@@ -7176,47 +7337,55 @@
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
-      <c r="E23" s="1" t="n">
+      <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>17:15-21:00</t>
+        </is>
+      </c>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
-      <c r="A24" s="1" t="n"/>
+      <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>15:00-15:15</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
-      <c r="E24" s="1" t="n"/>
+      <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
       <c r="G24" s="3" t="n"/>
       <c r="H24" s="3" t="n"/>
     </row>
     <row r="25" ht="18.75" customHeight="1">
-      <c r="A25" s="1" t="n">
+      <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:15-20:15</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
-      <c r="E25" s="1" t="n">
+      <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
       <c r="F25" s="3" t="n"/>
@@ -7224,25 +7393,17 @@
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
-      <c r="A26" s="1" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="A26" s="14" t="n"/>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
-      <c r="E26" s="1" t="n"/>
+      <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
       <c r="G26" s="3" t="n"/>
       <c r="H26" s="3" t="n"/>
     </row>
     <row r="27" ht="18.75" customHeight="1">
-      <c r="A27" s="1" t="n">
+      <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="B27" s="3" t="inlineStr">
@@ -7252,11 +7413,11 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>11:45-20:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
-      <c r="E27" s="1" t="n">
+      <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
       <c r="F27" s="3" t="n"/>
@@ -7264,31 +7425,31 @@
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
-      <c r="A28" s="1" t="n"/>
+      <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="n"/>
       <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
-      <c r="E28" s="1" t="n"/>
+      <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
       <c r="G28" s="3" t="n"/>
       <c r="H28" s="3" t="n"/>
     </row>
     <row r="29" ht="18.75" customHeight="1">
-      <c r="A29" s="1" t="n">
+      <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>13:15-22:15</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
-      <c r="E29" s="1" t="n">
+      <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
       <c r="F29" s="3" t="n"/>
@@ -7296,17 +7457,17 @@
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
-      <c r="A30" s="1" t="n"/>
+      <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="n"/>
       <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
-      <c r="E30" s="1" t="n"/>
+      <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
       <c r="G30" s="3" t="n"/>
       <c r="H30" s="3" t="n"/>
     </row>
     <row r="31" ht="18.75" customHeight="1">
-      <c r="A31" s="1" t="n">
+      <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="B31" s="3" t="inlineStr">
@@ -7316,11 +7477,11 @@
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
-      <c r="E31" s="1" t="n">
+      <c r="E31" s="14" t="n">
         <v>14</v>
       </c>
       <c r="F31" s="3" t="n"/>
@@ -7328,22 +7489,22 @@
       <c r="H31" s="3" t="n"/>
     </row>
     <row r="32" ht="18.75" customHeight="1">
-      <c r="A32" s="1" t="n"/>
+      <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="n"/>
       <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
-      <c r="E32" s="1" t="n"/>
+      <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
       <c r="G32" s="3" t="n"/>
       <c r="H32" s="3" t="n"/>
     </row>
     <row r="33" ht="18.75" customHeight="1">
-      <c r="A33" s="1" t="n">
+      <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -7352,7 +7513,7 @@
         </is>
       </c>
       <c r="D33" s="3" t="n"/>
-      <c r="E33" s="1" t="n">
+      <c r="E33" s="14" t="n">
         <v>15</v>
       </c>
       <c r="F33" s="3" t="n"/>
@@ -7360,23 +7521,23 @@
       <c r="H33" s="3" t="n"/>
     </row>
     <row r="34" ht="18.75" customHeight="1">
-      <c r="A34" s="1" t="n"/>
+      <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="n"/>
       <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
-      <c r="E34" s="1" t="n"/>
+      <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
       <c r="G34" s="3" t="n"/>
       <c r="H34" s="3" t="n"/>
     </row>
     <row r="35" ht="18.75" customHeight="1">
-      <c r="A35" s="1" t="n">
+      <c r="A35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="B35" s="3" t="n"/>
       <c r="C35" s="3" t="n"/>
       <c r="D35" s="3" t="n"/>
-      <c r="E35" s="1" t="n">
+      <c r="E35" s="14" t="n">
         <v>16</v>
       </c>
       <c r="F35" s="3" t="n"/>
@@ -7384,23 +7545,23 @@
       <c r="H35" s="3" t="n"/>
     </row>
     <row r="36" ht="18.75" customHeight="1">
-      <c r="A36" s="1" t="n"/>
+      <c r="A36" s="14" t="n"/>
       <c r="B36" s="3" t="n"/>
       <c r="C36" s="3" t="n"/>
       <c r="D36" s="3" t="n"/>
-      <c r="E36" s="1" t="n"/>
+      <c r="E36" s="14" t="n"/>
       <c r="F36" s="3" t="n"/>
       <c r="G36" s="3" t="n"/>
       <c r="H36" s="3" t="n"/>
     </row>
     <row r="37" ht="18.75" customHeight="1">
-      <c r="A37" s="1" t="n">
+      <c r="A37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="B37" s="3" t="n"/>
       <c r="C37" s="3" t="n"/>
       <c r="D37" s="3" t="n"/>
-      <c r="E37" s="1" t="n">
+      <c r="E37" s="14" t="n">
         <v>17</v>
       </c>
       <c r="F37" s="3" t="n"/>
@@ -7408,23 +7569,23 @@
       <c r="H37" s="3" t="n"/>
     </row>
     <row r="38" ht="18.75" customHeight="1">
-      <c r="A38" s="1" t="n"/>
+      <c r="A38" s="14" t="n"/>
       <c r="B38" s="3" t="n"/>
       <c r="C38" s="3" t="n"/>
       <c r="D38" s="3" t="n"/>
-      <c r="E38" s="1" t="n"/>
+      <c r="E38" s="14" t="n"/>
       <c r="F38" s="3" t="n"/>
       <c r="G38" s="3" t="n"/>
       <c r="H38" s="3" t="n"/>
     </row>
     <row r="39" ht="18.75" customHeight="1">
-      <c r="A39" s="1" t="n">
+      <c r="A39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="B39" s="3" t="n"/>
       <c r="C39" s="3" t="n"/>
       <c r="D39" s="3" t="n"/>
-      <c r="E39" s="1" t="n">
+      <c r="E39" s="14" t="n">
         <v>18</v>
       </c>
       <c r="F39" s="3" t="n"/>
@@ -7432,7 +7593,7 @@
       <c r="H39" s="3" t="n"/>
     </row>
     <row r="40" ht="18.75" customHeight="1">
-      <c r="A40" s="1" t="n"/>
+      <c r="A40" s="14" t="n"/>
       <c r="B40" s="3" t="n"/>
       <c r="C40" s="3" t="n"/>
       <c r="D40" s="3" t="n"/>
@@ -7442,27 +7603,27 @@
       <c r="H40" s="3" t="n"/>
     </row>
     <row r="41" ht="18.75" customHeight="1">
-      <c r="A41" s="1" t="inlineStr">
+      <c r="A41" s="14" t="inlineStr">
         <is>
           <t>CAJA RAPIDA</t>
         </is>
       </c>
-      <c r="B41" s="9" t="n"/>
-      <c r="C41" s="9" t="n"/>
-      <c r="D41" s="9" t="n"/>
-      <c r="E41" s="9" t="n"/>
-      <c r="F41" s="9" t="n"/>
-      <c r="G41" s="9" t="n"/>
-      <c r="H41" s="10" t="n"/>
+      <c r="B41" s="16" t="n"/>
+      <c r="C41" s="16" t="n"/>
+      <c r="D41" s="16" t="n"/>
+      <c r="E41" s="16" t="n"/>
+      <c r="F41" s="16" t="n"/>
+      <c r="G41" s="16" t="n"/>
+      <c r="H41" s="17" t="n"/>
     </row>
     <row r="42" ht="18.75" customHeight="1">
-      <c r="A42" s="1" t="n">
+      <c r="A42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="B42" s="3" t="n"/>
       <c r="C42" s="3" t="n"/>
       <c r="D42" s="3" t="n"/>
-      <c r="E42" s="1" t="n">
+      <c r="E42" s="14" t="n">
         <v>20</v>
       </c>
       <c r="F42" s="3" t="n"/>
@@ -7470,17 +7631,17 @@
       <c r="H42" s="3" t="n"/>
     </row>
     <row r="43" ht="18.75" customHeight="1">
-      <c r="A43" s="1" t="n"/>
+      <c r="A43" s="14" t="n"/>
       <c r="B43" s="3" t="n"/>
       <c r="C43" s="3" t="n"/>
       <c r="D43" s="3" t="n"/>
-      <c r="E43" s="1" t="n"/>
+      <c r="E43" s="14" t="n"/>
       <c r="F43" s="3" t="n"/>
       <c r="G43" s="3" t="n"/>
       <c r="H43" s="3" t="n"/>
     </row>
     <row r="44" ht="18.75" customHeight="1">
-      <c r="A44" s="1" t="n">
+      <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="B44" s="3" t="inlineStr">
@@ -7490,11 +7651,11 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
-      <c r="E44" s="1" t="n">
+      <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
       <c r="F44" s="3" t="n"/>
@@ -7502,31 +7663,31 @@
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
-      <c r="A45" s="1" t="n"/>
+      <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="n"/>
       <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
-      <c r="E45" s="1" t="n"/>
+      <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
       <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
-      <c r="A46" s="1" t="n">
+      <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>13:15-13:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
-      <c r="E46" s="1" t="n">
+      <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
       <c r="F46" s="3" t="n"/>
@@ -7534,31 +7695,31 @@
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
-      <c r="A47" s="1" t="n"/>
+      <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:00</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
-      <c r="E47" s="1" t="n"/>
+      <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
       <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
-      <c r="A48" s="1" t="n">
+      <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="B48" s="3" t="n"/>
       <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
-      <c r="E48" s="1" t="n">
+      <c r="E48" s="14" t="n">
         <v>23</v>
       </c>
       <c r="F48" s="3" t="n"/>
@@ -7566,23 +7727,23 @@
       <c r="H48" s="3" t="n"/>
     </row>
     <row r="49" ht="18.75" customHeight="1">
-      <c r="A49" s="1" t="n"/>
+      <c r="A49" s="14" t="n"/>
       <c r="B49" s="3" t="n"/>
       <c r="C49" s="3" t="n"/>
       <c r="D49" s="3" t="n"/>
-      <c r="E49" s="1" t="n"/>
+      <c r="E49" s="14" t="n"/>
       <c r="F49" s="3" t="n"/>
       <c r="G49" s="3" t="n"/>
       <c r="H49" s="3" t="n"/>
     </row>
     <row r="50" ht="18.75" customHeight="1">
-      <c r="A50" s="1" t="n">
+      <c r="A50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="B50" s="3" t="n"/>
       <c r="C50" s="3" t="n"/>
       <c r="D50" s="3" t="n"/>
-      <c r="E50" s="1" t="n">
+      <c r="E50" s="14" t="n">
         <v>24</v>
       </c>
       <c r="F50" s="3" t="n"/>
@@ -7590,7 +7751,7 @@
       <c r="H50" s="3" t="n"/>
     </row>
     <row r="51" ht="18.75" customHeight="1">
-      <c r="A51" s="1" t="n"/>
+      <c r="A51" s="14" t="n"/>
       <c r="B51" s="3" t="n"/>
       <c r="C51" s="3" t="n"/>
       <c r="D51" s="3" t="n"/>
@@ -7600,21 +7761,21 @@
       <c r="H51" s="3" t="n"/>
     </row>
     <row r="52" ht="18.75" customHeight="1">
-      <c r="A52" s="1" t="inlineStr">
+      <c r="A52" s="14" t="inlineStr">
         <is>
           <t>SELF CHECK OUT</t>
         </is>
       </c>
-      <c r="B52" s="9" t="n"/>
-      <c r="C52" s="9" t="n"/>
-      <c r="D52" s="9" t="n"/>
-      <c r="E52" s="9" t="n"/>
-      <c r="F52" s="9" t="n"/>
-      <c r="G52" s="9" t="n"/>
-      <c r="H52" s="10" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="17" t="n"/>
     </row>
     <row r="53" ht="18.75" customHeight="1">
-      <c r="A53" s="1" t="inlineStr">
+      <c r="A53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -7630,25 +7791,25 @@
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
-      <c r="E53" s="1" t="inlineStr">
+      <c r="E53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="3" t="inlineStr">
+      <c r="F53" s="8" t="inlineStr">
         <is>
           <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
         </is>
       </c>
-      <c r="G53" s="3" t="inlineStr">
+      <c r="G53" s="8" t="inlineStr">
         <is>
           <t>15:15-19:00</t>
         </is>
       </c>
-      <c r="H53" s="3" t="n"/>
+      <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
-      <c r="A54" s="1" t="inlineStr">
+      <c r="A54" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
@@ -7664,56 +7825,56 @@
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
-      <c r="E54" s="1" t="inlineStr">
+      <c r="E54" s="13" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="8" t="inlineStr">
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
+      <c r="H54" s="12" t="n"/>
+    </row>
+    <row r="55" ht="18.75" customHeight="1">
+      <c r="A55" s="14" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="n"/>
+      <c r="E55" s="14" t="inlineStr">
+        <is>
+          <t>25-30</t>
+        </is>
+      </c>
+      <c r="F55" s="10" t="inlineStr">
         <is>
           <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
-      <c r="G54" s="8" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
-      <c r="H54" s="8" t="n"/>
-    </row>
-    <row r="55" ht="18.75" customHeight="1">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="n"/>
-      <c r="E55" s="1" t="inlineStr">
-        <is>
-          <t>25-30</t>
-        </is>
-      </c>
-      <c r="F55" s="3" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G55" s="3" t="inlineStr">
+      <c r="G55" s="10" t="inlineStr">
         <is>
           <t>19:00-22:45</t>
         </is>
       </c>
-      <c r="H55" s="3" t="n"/>
+      <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -7723,5 +7884,6 @@
     <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="56"/>
 </worksheet>
 </file>
--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>LUNES 21 DE OCTUBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -701,7 +701,7 @@
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>21:15-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -710,12 +710,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ARAUJO, ROMINA</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -728,12 +728,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) HURTADO SAMPLINI, JACK FERNANDO</t>
+          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-22:00</t>
+          <t>13:30-21:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -793,7 +793,7 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>18:30-18:45</t>
+          <t>18:30-22:00</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -864,8 +864,16 @@
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>13:45-21:15</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
@@ -877,7 +885,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:30-21:30</t>
+          <t>12:30-13:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -940,12 +948,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -988,12 +996,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -1002,7 +1010,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -1036,12 +1044,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -1076,12 +1084,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>17:00-22:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -1094,16 +1102,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>17:00-22:00</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -1210,8 +1210,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -1426,12 +1434,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:45</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -1661,7 +1669,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>MARTES 22 DE OCTUBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2695,7 +2703,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>MIÉRCOLES 23 DE OCTUBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2777,7 +2785,7 @@
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:30-22:45</t>
+          <t>21:45-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -2786,12 +2794,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ARAUJO, ROMINA</t>
+          <t>(T) RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:00-13:15</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -2804,12 +2812,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-21:45</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -2869,7 +2877,7 @@
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:30</t>
+          <t>19:00-21:45</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -2892,20 +2900,28 @@
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -2973,7 +2989,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -2982,12 +2998,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -2996,18 +3012,26 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
@@ -3016,12 +3040,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -3064,12 +3088,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -3104,12 +3128,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -3122,16 +3146,8 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>16:45-20:30</t>
-        </is>
-      </c>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -3245,7 +3261,7 @@
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>18:00-18:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -3486,12 +3502,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -3504,16 +3520,8 @@
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
@@ -3729,7 +3737,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>JUEVES 24 DE OCTUBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3811,7 +3819,7 @@
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>22:15-22:45</t>
+          <t>21:45-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -3820,12 +3828,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ARAUJO, ROMINA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -3838,12 +3846,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-22:30</t>
+          <t>13:30-22:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -3898,12 +3906,12 @@
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -4035,7 +4043,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:15</t>
+          <t>13:45-21:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -4112,7 +4120,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -4146,12 +4154,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -4186,12 +4194,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -4320,8 +4328,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -4536,12 +4552,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -4771,7 +4787,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>VIERNES 25 DE OCTUBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -4848,12 +4864,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>(T) PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>17:45-20:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -4862,30 +4878,38 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ARAUJO, ROMINA</t>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:00-14:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>20:30-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>(T) LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-22:00</t>
+          <t>14:30-18:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -4900,12 +4924,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-16:45</t>
+          <t>07:00-16:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -4920,12 +4944,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -4940,12 +4964,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:00-16:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -4960,12 +4984,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:45</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -4980,40 +5004,32 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>13:45-20:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -5028,12 +5044,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-14:45</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -5042,12 +5058,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -5056,12 +5072,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -5090,12 +5106,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>15:00-19:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -5109,13 +5125,21 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>14:15-14:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -5138,7 +5162,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -5192,12 +5216,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5224,20 +5248,28 @@
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>17:00-17:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -5252,12 +5284,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:15-21:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -5284,12 +5316,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:15-21:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -5316,12 +5348,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>18:15-18:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -5562,12 +5594,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-16:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -5580,16 +5612,8 @@
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
@@ -5805,7 +5829,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>SÁBADO 26 DE OCTUBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -5948,7 +5972,7 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -5974,7 +5998,7 @@
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -6092,7 +6116,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
@@ -6140,12 +6164,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -6154,12 +6178,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-14:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -6186,14 +6210,30 @@
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>15:30-19:15</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>BRENIS LARTIGA, SEBASTIAN</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>14:30-14:45</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -6206,12 +6246,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ARAUJO, ROMINA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -6238,12 +6278,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -6270,12 +6310,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -6302,12 +6342,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:30-20:30</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -6334,12 +6374,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:30-20:30</t>
+          <t>11:45-20:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -6366,12 +6406,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:45-20:45</t>
+          <t>12:00-20:45</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6398,12 +6438,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>12:00-20:45</t>
+          <t>12:45-21:45</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -6428,16 +6468,8 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>12:45-21:45</t>
-        </is>
-      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -6572,12 +6604,12 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>08:15-17:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -6590,16 +6622,8 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -6612,12 +6636,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>08:15-17:15</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -6632,12 +6656,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -6855,7 +6879,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DOMINGO 27 DE OCTUBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -7160,32 +7184,40 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ARAUJO, ROMINA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>19:00-21:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -7200,40 +7232,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>14:45-22:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -7260,20 +7284,28 @@
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>14:45-22:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -7300,20 +7332,28 @@
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>17:15-21:00</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>15:00-15:15</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -7340,28 +7380,20 @@
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>17:15-21:00</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>15:00-15:15</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -7678,12 +7710,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -7696,16 +7728,8 @@
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>17:30-21:15</t>
-        </is>
-      </c>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>LUNES 21 DE OCTUBRE 2024</t>
+          <t>LUNES 4 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -696,7 +696,7 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>(T) PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -710,7 +710,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -728,7 +728,7 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -748,7 +748,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -767,7 +767,7 @@
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -776,24 +776,24 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:00</t>
+          <t>19:00-21:15</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -804,7 +804,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -832,7 +832,7 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -852,12 +852,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -866,12 +866,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:15</t>
+          <t>14:30-18:00</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -880,7 +880,7 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -890,8 +890,16 @@
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -900,12 +908,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:15-13:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -914,12 +922,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -933,7 +941,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -948,40 +956,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -1008,28 +1008,20 @@
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>17:00-22:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -1064,12 +1056,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>17:15-21:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -1084,12 +1076,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>17:00-22:00</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -1116,12 +1108,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -1148,12 +1140,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -1178,16 +1170,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>18:00-20:45</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -1210,16 +1194,8 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -1407,7 +1383,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:15-19:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -1530,7 +1506,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -1546,12 +1522,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -1564,7 +1540,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1578,16 +1554,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -1598,12 +1566,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -1669,7 +1637,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MARTES 22 DE OCTUBRE 2024</t>
+          <t>MARTES 5 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -1730,12 +1698,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -1744,28 +1712,20 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>(T) ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>21:45-22:45</t>
-        </is>
-      </c>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:15</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -1778,12 +1738,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>14:00-22:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -1803,7 +1763,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -1812,12 +1772,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -1826,26 +1786,18 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>19:00-21:45</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -1854,40 +1806,32 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>17:30-21:15</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:30-17:15</t>
+          <t>12:45-21:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -1902,12 +1846,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -1916,12 +1860,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -1930,12 +1874,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -1950,7 +1894,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -1964,12 +1908,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -1978,18 +1922,26 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>13:45-14:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
@@ -1998,54 +1950,38 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>19:00-21:45</t>
-        </is>
-      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -2054,40 +1990,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -2102,12 +2030,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -2120,8 +2048,16 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -2134,12 +2070,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -2152,8 +2088,16 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -2166,12 +2110,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -2198,12 +2142,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -2228,8 +2172,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -2441,7 +2393,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>11:00-20:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -2468,12 +2420,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ARAUJO, ROMINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>10:45-19:45</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -2580,12 +2532,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -2612,16 +2564,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -2632,12 +2576,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -2703,7 +2647,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MIÉRCOLES 23 DE OCTUBRE 2024</t>
+          <t>MIÉRCOLES 6 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2764,7 +2708,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -2780,12 +2724,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) PEREZ GORMAS, ANTHONY</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>21:15-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -2794,12 +2738,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>(T) PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:15</t>
+          <t>10:00-12:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -2812,12 +2756,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>12:30-21:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -2846,12 +2790,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -2860,24 +2804,24 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -2902,12 +2846,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -2916,12 +2860,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -2936,7 +2880,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2950,12 +2894,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:00-20:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -2964,12 +2908,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -2984,12 +2928,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>09:00-10:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -2998,12 +2942,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -3012,7 +2956,7 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -3024,7 +2968,7 @@
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G14" s="3" t="inlineStr">
@@ -3040,7 +2984,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -3052,28 +2996,20 @@
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -3088,7 +3024,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -3113,7 +3049,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -3128,12 +3064,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>13:45-21:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -3160,7 +3096,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -3192,12 +3128,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -3229,7 +3165,7 @@
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -3256,12 +3192,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -3614,12 +3550,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -3646,16 +3582,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -3666,12 +3594,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -3737,7 +3665,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>JUEVES 24 DE OCTUBRE 2024</t>
+          <t>JUEVES 7 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3814,12 +3742,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>(T) SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>16:45-20:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -3828,7 +3756,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -3838,20 +3766,28 @@
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>20:00-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>(T) MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-22:00</t>
+          <t>13:30-17:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -3866,7 +3802,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -3880,12 +3816,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -3904,16 +3840,8 @@
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -3941,7 +3869,7 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -3950,12 +3878,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>12:15-16:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -3970,12 +3898,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -3984,12 +3912,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -3998,12 +3926,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:30-16:15</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -4030,20 +3958,28 @@
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>13:45-20:00</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:45</t>
+          <t>13:15-13:30</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -4058,40 +3994,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>13:45-22:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4106,12 +4034,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -4120,12 +4048,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -4134,12 +4062,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4154,32 +4082,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>16:30-16:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4194,12 +4130,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>13:00-13:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -4212,16 +4148,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>17:15-21:00</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -4234,12 +4162,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -4264,16 +4192,8 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -4296,16 +4216,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>18:15-21:00</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -4328,16 +4240,8 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -4664,12 +4568,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -4696,16 +4600,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -4716,12 +4612,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -4787,7 +4683,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>VIERNES 25 DE OCTUBRE 2024</t>
+          <t>VIERNES 8 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -4864,12 +4760,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) PEREZ GORMAS, ANTHONY</t>
+          <t>(T) INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>17:45-20:45</t>
+          <t>16:45-20:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -4878,24 +4774,24 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-14:45</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>(T) AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>(T) LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>20:30-22:45</t>
+          <t>20:00-22:45</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -4904,12 +4800,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:30-18:00</t>
+          <t>13:30-17:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -4924,32 +4820,40 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-16:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>15:15-22:45</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -4964,38 +4868,54 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-16:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>15:30-19:15</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>19:15-22:45</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -5004,38 +4924,54 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>16:30-16:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:45-20:30</t>
+          <t>12:45-16:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -5044,12 +4980,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -5058,12 +4994,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -5072,18 +5008,26 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>13:15-13:30</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
-      <c r="F14" s="3" t="n"/>
-      <c r="G14" s="3" t="n"/>
+      <c r="F14" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
@@ -5092,12 +5036,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -5106,12 +5050,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>15:00-19:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -5120,26 +5064,18 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-14:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -5148,28 +5084,20 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:30-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
@@ -5181,7 +5109,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:00</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5196,7 +5124,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -5216,12 +5144,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5236,42 +5164,26 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>17:00-17:45</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -5284,12 +5196,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:15-21:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -5314,16 +5226,8 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -5346,16 +5250,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -5567,7 +5463,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>11:00-20:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -5594,7 +5490,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ARAUJO, ROMINA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -5612,8 +5508,16 @@
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>19:00-20:00</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
@@ -5706,12 +5610,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -5738,16 +5642,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -5758,12 +5654,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -5829,7 +5725,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>SÁBADO 26 DE OCTUBRE 2024</t>
+          <t>SÁBADO 9 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -5890,12 +5786,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-15:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -5906,12 +5802,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>(T) INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:30-22:45</t>
+          <t>22:00-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -5920,12 +5816,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+          <t>(T) LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>14:45-18:15</t>
+          <t>10:30-14:00</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -5938,12 +5834,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>13:45-22:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -5958,54 +5854,38 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:45-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -6014,40 +5894,32 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>08:30-17:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>19:00-21:30</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>11:30-19:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -6062,32 +5934,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:30</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -6102,40 +5982,32 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -6150,12 +6022,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:15-10:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -6164,12 +6036,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -6178,18 +6050,26 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -6198,12 +6078,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -6212,12 +6092,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -6226,12 +6106,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:30-14:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -6246,12 +6126,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -6264,8 +6144,16 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -6278,12 +6166,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:45-19:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -6310,7 +6198,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -6342,12 +6230,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:30-20:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -6374,12 +6262,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>AYQUIPA MONTENEGRO, VALERIA ESTEFANY</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:45-20:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -6406,12 +6294,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>12:00-20:45</t>
+          <t>12:45-21:30</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6438,12 +6326,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>13:15-13:45</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -6641,7 +6529,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>08:15-17:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -6656,12 +6544,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:00</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -6879,7 +6767,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>DOMINGO 27 DE OCTUBRE 2024</t>
+          <t>DOMINGO 10 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -6940,12 +6828,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-15:30</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -6956,12 +6844,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>21:15-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -6970,12 +6858,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>15:15-18:45</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -6988,12 +6876,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) BRENIS LARTIGA, SEBASTIAN</t>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:30-22:00</t>
+          <t>13:30-21:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -7008,7 +6896,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -7022,7 +6910,7 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -7036,7 +6924,7 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -7048,12 +6936,12 @@
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>BRENIS LARTIGA, SEBASTIAN</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>18:15-18:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -7064,7 +6952,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -7084,7 +6972,7 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -7104,32 +6992,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>13:45-21:15</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:30-21:30</t>
+          <t>12:30-13:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -7144,12 +7040,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -7164,12 +7060,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:45</t>
+          <t>13:45-22:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -7184,12 +7080,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -7198,12 +7094,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:45</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -7212,7 +7108,7 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -7232,32 +7128,40 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:45-22:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -7272,7 +7176,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -7284,28 +7188,20 @@
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -7320,7 +7216,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -7332,28 +7228,20 @@
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>17:15-21:00</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:00-15:15</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -7368,7 +7256,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -7388,7 +7276,7 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -7408,12 +7296,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:15-20:15</t>
+          <t>11:30-20:30</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -7440,12 +7328,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:45-20:45</t>
+          <t>12:15-21:15</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -7472,12 +7360,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>HURTADO SAMPLINI, JACK FERNANDO</t>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>13:15-22:15</t>
+          <t>13:45-22:45</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -7504,7 +7392,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -7536,7 +7424,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -7683,7 +7571,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-19:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -7822,12 +7710,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -7856,12 +7744,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -7874,7 +7762,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -7888,16 +7776,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr">
-        <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
-        </is>
-      </c>
-      <c r="G55" s="10" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
       <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>LUNES 11 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -1413,7 +1413,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>MARTES 12 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2207,7 +2207,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>MIÉRCOLES 13 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3001,7 +3001,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>JUEVES 14 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3138,12 +3138,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:30-11:15</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -3152,12 +3152,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -3166,24 +3166,24 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>18:45-22:30</t>
+          <t>19:00-19:30</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -3194,12 +3194,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>07:30-11:15</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -3208,12 +3208,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -3222,24 +3222,24 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>12:30-13:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G10" s="3" t="inlineStr">
         <is>
-          <t>19:00-19:30</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H10" s="3" t="n"/>
@@ -3250,12 +3250,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>09:30-10:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -3278,12 +3278,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -3298,40 +3298,32 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -3346,12 +3338,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -3366,7 +3358,7 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -3386,7 +3378,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -3406,12 +3398,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -3426,12 +3418,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -3444,16 +3436,8 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>CARRIL DARRIGO, RENZO</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -3784,46 +3768,70 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>18:45-22:30</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -4027,7 +4035,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>VIERNES 15 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -4164,12 +4172,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -4178,12 +4186,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:00</t>
+          <t>13:45-19:15</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -4192,26 +4200,18 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>12:15-13:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -4220,12 +4220,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>09:15-13:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -4234,12 +4234,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>13:45-19:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -4248,12 +4248,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:15-13:15</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -4268,12 +4268,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:15-13:30</t>
+          <t>09:45-10:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -4282,12 +4282,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -4296,18 +4296,26 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -4316,12 +4324,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:45-10:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -4330,12 +4338,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -4344,26 +4352,18 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
-      <c r="F14" s="3" t="inlineStr">
-        <is>
-          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
-        </is>
-      </c>
-      <c r="G14" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F14" s="3" t="n"/>
+      <c r="G14" s="3" t="n"/>
       <c r="H14" s="3" t="n"/>
     </row>
     <row r="15" ht="19.5" customHeight="1">
@@ -4372,40 +4372,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4420,12 +4412,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -4440,12 +4432,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4460,12 +4452,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -4480,12 +4472,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4500,12 +4492,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -4520,12 +4512,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -4540,12 +4532,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -4810,38 +4802,54 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>15:30-19:00</t>
+        </is>
+      </c>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -4850,12 +4858,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>11:45-15:30</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -4870,12 +4878,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -4888,8 +4896,16 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -5093,7 +5109,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>SÁBADO 16 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -5222,54 +5238,38 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>08:30-17:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -5278,12 +5278,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -5298,12 +5298,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>12:45-21:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -5318,12 +5318,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:30-17:30</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -5338,12 +5338,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>14:15-23:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -5358,32 +5358,40 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:15</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>14:15-19:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -5398,12 +5406,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -5412,12 +5420,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -5426,12 +5434,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-19:00</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -5446,40 +5454,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5494,12 +5494,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -5514,7 +5514,7 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -5534,12 +5534,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>PIÑA SHUPINGAHUA, SANDRA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -5554,12 +5554,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -5574,12 +5574,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -5594,12 +5594,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -5614,12 +5614,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>NINA OSCCO, FRANCIS GABRIELA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:30-20:15</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -5632,16 +5632,8 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -5654,12 +5646,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>12:00-21:00</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -5684,16 +5676,8 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>11:30-20:15</t>
-        </is>
-      </c>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -5876,30 +5860,54 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>14:15-23:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>10:45-14:30</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -5908,32 +5916,40 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -5946,8 +5962,16 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>14:15-23:15</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -6151,7 +6175,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>FECHA</t>
+          <t>DOMINGO 17 DE NOVIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -6228,7 +6252,7 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>(T) QUISPE MENDOZA, ANTONY MAURICIO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -6280,40 +6304,32 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>14:30-23:30</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>12:00-21:00</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -6328,12 +6344,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:30-17:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -6348,12 +6364,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -6470,12 +6486,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:30</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -6668,16 +6684,8 @@
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
@@ -6741,7 +6749,7 @@
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:45</t>
+          <t>13:45-21:30</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6952,8 +6960,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -6966,32 +6982,40 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>08:30-17:30</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>14:30-23:30</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>HUAYANAY VELASCO, ATHINA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>LUNES 11 DE NOVIEMBRE 2024</t>
+          <t>LUNES 23 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -678,22 +678,46 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>21:45-22:45</t>
+        </is>
+      </c>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>IDME GOMEZ, MILAGROS</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>10:30-14:15</t>
+        </is>
+      </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="n"/>
@@ -702,8 +726,16 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>14:00-22:00</t>
+        </is>
+      </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="10" t="n"/>
@@ -714,8 +746,16 @@
       <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>08:00-17:00</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
@@ -726,8 +766,16 @@
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -738,8 +786,16 @@
       <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>08:30-12:15</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
@@ -750,8 +806,16 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>12:15-21:15</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -762,20 +826,44 @@
       <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>08:30-12:15</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>12:30-16:15</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -786,20 +874,44 @@
       <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>08:45-12:30</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>16:45-20:30</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>12:30-16:15</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -810,20 +922,44 @@
       <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>09:45-13:30</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>MORALES MIRANDA, JUANA</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
@@ -834,20 +970,44 @@
       <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>10:00-13:45</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>14:45-18:30</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -858,20 +1018,44 @@
       <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>10:15-14:00</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>19:00-21:45</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -882,20 +1066,44 @@
       <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>10:30-14:15</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -906,20 +1114,44 @@
       <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE DELGADO, VICTOR HUGO</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>15:30-19:15</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -930,20 +1162,44 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>20:00-23:45</t>
+        </is>
+      </c>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -954,8 +1210,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>11:15-15:00</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -966,8 +1230,16 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -978,8 +1250,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>11:15-15:00</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -990,8 +1270,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -1002,8 +1290,16 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>RUIZ JORGE, RICHARD JUAN</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>11:30-15:15</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -1014,8 +1310,16 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -1026,8 +1330,16 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>12:00-17:00</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -1038,8 +1350,16 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>17:30-22:15</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -1160,8 +1480,16 @@
       <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>09:15-18:15</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
@@ -1172,8 +1500,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>20:00-23:45</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -1184,20 +1520,44 @@
       <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" s="3" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>14:45-23:45</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
@@ -1290,7 +1650,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>APO, ELIZABETH</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -1324,12 +1684,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:45-23:30</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -1413,7 +1773,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MARTES 12 DE NOVIEMBRE 2024</t>
+          <t>MARTES 24 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -1472,8 +1832,16 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="7" t="inlineStr">
         <is>
@@ -1486,8 +1854,16 @@
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>10:30-14:15</t>
+        </is>
+      </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="n"/>
@@ -1496,8 +1872,16 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>(T) PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>14:00-17:15</t>
+        </is>
+      </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="10" t="n"/>
@@ -1508,8 +1892,16 @@
       <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>08:00-17:00</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
@@ -1520,8 +1912,16 @@
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -1532,8 +1932,16 @@
       <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>08:00-15:45</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
@@ -1544,8 +1952,16 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -1556,20 +1972,44 @@
       <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>08:15-12:00</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>12:00-15:45</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -1580,20 +2020,44 @@
       <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>08:45-12:30</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>13:15-17:00</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -1604,20 +2068,44 @@
       <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>09:15-13:00</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>13:15-17:00</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
@@ -1628,8 +2116,16 @@
       <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>09:30-13:15</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
@@ -1640,8 +2136,16 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>13:30-17:15</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -1652,8 +2156,16 @@
       <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>09:30-13:15</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
@@ -1664,8 +2176,16 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>13:30-17:15</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -1676,8 +2196,16 @@
       <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>10:00-13:45</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
@@ -1688,8 +2216,16 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>MORALES MIRANDA, JUANA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -1700,8 +2236,16 @@
       <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>11:00-20:00</t>
+        </is>
+      </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
@@ -1724,8 +2268,16 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -1736,8 +2288,16 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -1748,8 +2308,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -1760,8 +2328,16 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -1772,8 +2348,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -1784,8 +2368,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -1796,8 +2388,16 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>11:15-15:00</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -1808,8 +2408,16 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>16:15-20:00</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -1820,8 +2428,16 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>11:30-15:15</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -1832,8 +2448,16 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>16:15-20:00</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -1954,8 +2578,16 @@
       <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>11:00-20:00</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
@@ -1978,20 +2610,44 @@
       <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" s="3" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>10:45-14:30</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
@@ -2002,8 +2658,16 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>11:45-20:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -2084,12 +2748,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -2116,16 +2780,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -2207,7 +2863,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MIÉRCOLES 13 DE NOVIEMBRE 2024</t>
+          <t>MIÉRCOLES 25 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2266,8 +2922,16 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>11:45-15:30</t>
+        </is>
+      </c>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="7" t="inlineStr">
         <is>
@@ -2280,8 +2944,16 @@
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>(T) BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>15:15-17:15</t>
+        </is>
+      </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="n"/>
@@ -2290,8 +2962,16 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="10" t="n"/>
@@ -2302,8 +2982,16 @@
       <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>12:15-16:00</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
@@ -2314,8 +3002,16 @@
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -2326,8 +3022,16 @@
       <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>12:15-16:00</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
@@ -2338,8 +3042,16 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -2350,8 +3062,16 @@
       <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>12:30-16:15</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
@@ -2362,8 +3082,16 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -2374,8 +3102,16 @@
       <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>13:15-17:00</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
@@ -2386,8 +3122,16 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -2398,8 +3142,16 @@
       <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>13:15-17:00</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
@@ -2410,8 +3162,16 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
@@ -2422,8 +3182,16 @@
       <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>13:30-17:15</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
@@ -2434,8 +3202,16 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -2446,8 +3222,16 @@
       <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>13:30-17:15</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
@@ -2470,8 +3254,16 @@
       <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>13:30-15:15</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
@@ -2482,8 +3274,16 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -2748,8 +3548,16 @@
       <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>12:00-15:45</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
@@ -2760,8 +3568,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>CARRIL DARRIGO, RENZO</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -2772,8 +3588,16 @@
       <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" s="3" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>12:00-15:45</t>
+        </is>
+      </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
@@ -2784,8 +3608,16 @@
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
@@ -2796,8 +3628,16 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -2862,12 +3702,12 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
@@ -2876,16 +3716,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
       <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
@@ -2896,12 +3728,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -2910,16 +3742,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -2930,12 +3754,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -3001,7 +3825,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>JUEVES 14 DE NOVIEMBRE 2024</t>
+          <t>JUEVES 26 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3078,12 +3902,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -3092,24 +3916,24 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) HUAYANAY VELASCO, ATHINA</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>(T) CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>19:30-22:45</t>
+          <t>20:30-22:45</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -3118,12 +3942,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:00-16:15</t>
+          <t>13:30-17:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -3138,54 +3962,38 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:30-11:15</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>19:00-19:30</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -3194,12 +4002,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -3208,12 +4016,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -3222,26 +4030,18 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:30-13:00</t>
+          <t>12:30-16:15</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -3250,12 +4050,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:30-10:00</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -3264,12 +4064,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -3278,12 +4078,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>12:45-16:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -3298,32 +4098,40 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>17:45-21:30</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -3338,12 +4146,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -3358,12 +4166,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-20:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -3378,32 +4186,40 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -3418,26 +4234,42 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -3450,26 +4282,42 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>IDME GOMEZ, MILAGROS</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -3480,20 +4328,44 @@
       <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>11:15-15:00</t>
+        </is>
+      </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>19:15-23:00</t>
+        </is>
+      </c>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>15:30-19:15</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -3504,8 +4376,16 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>RUIZ JORGE, RICHARD JUAN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>11:30-15:15</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -3516,8 +4396,16 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -3528,8 +4416,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>12:00-15:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -3540,8 +4436,16 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -3552,8 +4456,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>13:00-22:00</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -3576,8 +4488,16 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -3600,8 +4520,16 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -3741,7 +4669,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -3754,8 +4682,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE DELGADO, VICTOR HUGO</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -3768,7 +4704,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -3782,7 +4718,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -3796,7 +4732,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -3808,7 +4744,7 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>MORALES MIRANDA, JUANA</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
@@ -3822,16 +4758,8 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -3912,7 +4840,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+          <t>APO, ELIZABETH</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -3930,7 +4858,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>APO, YENIFER</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -4035,7 +4963,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>VIERNES 15 DE NOVIEMBRE 2024</t>
+          <t>VIERNES 27 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -4096,12 +5024,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -4112,12 +5040,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>(T) SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>17:30-21:00</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -4126,38 +5054,30 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:30</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>19:15-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:15-16:00</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -4177,7 +5097,7 @@
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -4186,12 +5106,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>13:45-19:15</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -4200,18 +5120,26 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:15-13:15</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -4220,40 +5148,32 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>09:15-13:30</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>12:00-21:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -4268,54 +5188,38 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:45-10:00</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>14:15-18:00</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>12:15-21:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -4324,40 +5228,32 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:30-23:30</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -4372,32 +5268,40 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4412,32 +5316,40 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4452,32 +5364,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE DELGADO, VICTOR HUGO</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4497,27 +5417,35 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:45-15:30</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>19:45-23:30</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -4532,26 +5460,42 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>RUIZ JORGE, RICHARD JUAN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>19:45-23:30</t>
+        </is>
+      </c>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -4564,12 +5508,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -4582,8 +5526,16 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -4594,8 +5546,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>12:00-15:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -4606,8 +5566,16 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -4618,8 +5586,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>12:00-15:45</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -4630,8 +5606,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -4642,8 +5626,16 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:30</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -4666,8 +5658,16 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>17:15-17:30</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -4678,8 +5678,16 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>17:45-21:30</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -4802,54 +5810,30 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>15:30-19:00</t>
-        </is>
-      </c>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>11:00-14:45</t>
-        </is>
-      </c>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -4858,38 +5842,54 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>07:30-11:15</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>15:15-19:00</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>19:15-23:00</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
@@ -4898,12 +5898,12 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>14:30-23:30</t>
         </is>
       </c>
       <c r="D48" s="3" t="n"/>
@@ -4986,12 +5986,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:45-23:30</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -5004,12 +6004,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>APO, ELIZABETH</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -5018,16 +6018,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -5043,7 +6035,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -5109,7 +6101,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>SÁBADO 16 DE NOVIEMBRE 2024</t>
+          <t>SÁBADO 28 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -5170,12 +6162,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -5186,12 +6178,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>(T) LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>22:15-22:45</t>
+          <t>17:30-20:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -5200,30 +6192,38 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>20:00-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-22:30</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -5238,12 +6238,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:30-17:30</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -5258,12 +6258,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>11:45-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -5278,38 +6278,54 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -5318,38 +6334,54 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>MORALES MIRANDA, JUANA</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:15-23:15</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE DELGADO, VICTOR HUGO</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -5358,40 +6390,32 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>08:15-17:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:15</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:15-19:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -5406,40 +6430,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>13:15-22:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -5454,12 +6470,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -5474,12 +6490,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>13:30-22:30</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5494,32 +6510,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>15:00-18:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5534,32 +6558,40 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>19:45-23:30</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -5574,32 +6606,40 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>19:45-23:30</t>
+        </is>
+      </c>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>RUIZ JORGE, RICHARD JUAN</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -5614,12 +6654,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:30-20:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -5632,8 +6672,16 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>16:15-20:00</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -5646,12 +6694,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -5664,8 +6712,16 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>16:15-20:00</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -5676,8 +6732,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>11:00-18:30</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -5688,8 +6752,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>19:00-20:00</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -5700,8 +6772,16 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>11:15-15:00</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -5712,8 +6792,16 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -5724,8 +6812,16 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>11:15-15:00</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -5736,8 +6832,16 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="n"/>
-      <c r="C34" s="3" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>CARRIL DARRIGO, RENZO</t>
+        </is>
+      </c>
+      <c r="C34" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -5860,54 +6964,38 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
+          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>19:45-23:30</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -5916,12 +7004,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>07:30-16:30</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -5930,12 +7018,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -5944,12 +7032,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>16:30-17:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -5962,16 +7050,8 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>14:15-23:15</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -6036,7 +7116,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -6052,7 +7132,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>APO, YENIFER</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -6070,7 +7150,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -6086,12 +7166,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:45-23:30</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -6104,7 +7184,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>APO, ELIZABETH</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -6175,7 +7255,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>DOMINGO 17 DE NOVIEMBRE 2024</t>
+          <t>DOMINGO 29 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -6236,12 +7316,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -6250,28 +7330,20 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>(T) QUISPE MENDOZA, ANTONY MAURICIO</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>21:30-22:45</t>
-        </is>
-      </c>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-19:30</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -6284,12 +7356,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) CARRIL DARRIGO, RENZO</t>
+          <t>(T) SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-21:45</t>
+          <t>19:15-22:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -6304,12 +7376,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -6324,12 +7396,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -6344,38 +7416,54 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:30-17:30</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>RUIZ JORGE, RICHARD JUAN</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE DELGADO, VICTOR HUGO</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -6384,38 +7472,54 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>PIÑA SHUPINGAHUA, SANDRA</t>
+          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:15-13:00</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>19:45-23:30</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -6424,12 +7528,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -6438,7 +7542,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
@@ -6452,7 +7556,7 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -6472,12 +7576,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>RUIZ SANTOS, CIELO CRISTHINA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -6486,12 +7590,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>MORALES MIRANDA, JUANA</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -6500,12 +7604,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -6520,12 +7624,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -6540,12 +7644,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -6560,32 +7664,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>CARRIL DARRIGO, RENZO</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -6600,26 +7712,42 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>NINA OSCCO, FRANCIS GABRIELA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -6632,12 +7760,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-20:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -6650,16 +7778,8 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>GONZALES OLIVARES, JEFFERSON ISRAEL</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -6672,32 +7792,40 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>18:00-18:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -6712,26 +7840,42 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>12:30-21:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="F27" s="3" t="n"/>
-      <c r="G27" s="3" t="n"/>
+      <c r="F27" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>14:45-18:30</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -6744,12 +7888,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MENDOZA, ANTONY MAURICIO</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:30</t>
+          <t>11:30-20:15</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6776,12 +7920,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>12:00-21:00</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -6806,8 +7950,16 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="n"/>
-      <c r="C33" s="3" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
+        </is>
+      </c>
+      <c r="C33" s="3" t="inlineStr">
+        <is>
+          <t>12:00-21:00</t>
+        </is>
+      </c>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -6947,7 +8099,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -6962,12 +8114,12 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:45-23:30</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -6982,12 +8134,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:30-11:15</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -6996,12 +8148,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>14:30-23:30</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -7010,18 +8162,26 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HUAYANAY VELASCO, ATHINA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
@@ -7110,12 +8270,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>APO, YENIFER</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -7144,12 +8304,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>EVANGELISTA INFANTES, MARIA FERNANDA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:45-23:30</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -7176,16 +8336,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr">
-        <is>
-          <t>ORIHUELA PUMACCAHUA, ALVARO RAUL</t>
-        </is>
-      </c>
-      <c r="G55" s="10" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
       <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>LUNES 23 DE DICIEMBRE 2024</t>
+          <t>LUNES 30 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) ROA ZARATE, ELIZABETH LUCY</t>
+          <t>(T) HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>22:15-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -710,7 +710,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -728,12 +728,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+          <t>(T) BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:00-22:00</t>
+          <t>14:00-22:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -768,7 +768,7 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -788,38 +788,54 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:15-21:15</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>19:30-23:15</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -828,12 +844,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -842,12 +858,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -856,18 +872,26 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:30-16:15</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>19:45-23:30</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -876,12 +900,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -890,12 +914,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -904,12 +928,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>12:30-16:15</t>
+          <t>12:45-16:30</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -924,40 +948,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MORALES MIRANDA, JUANA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -972,12 +988,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -986,12 +1002,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -1000,12 +1016,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -1020,40 +1036,32 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>19:00-21:45</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>13:15-22:15</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -1068,12 +1076,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -1082,12 +1090,12 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>CONDORI FLORES, ROSARIO</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>19:30-23:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H21" s="3" t="n"/>
@@ -1096,12 +1104,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -1116,7 +1124,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1128,28 +1136,20 @@
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>QUISPE DELGADO, VICTOR HUGO</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -1164,40 +1164,32 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>20:00-23:45</t>
-        </is>
-      </c>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -1212,12 +1204,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>12:15-16:00</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -1232,12 +1224,12 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>MORALES MIRANDA, JUANA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
@@ -1252,32 +1244,40 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>13:45-14:00</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F29" s="3" t="n"/>
-      <c r="G29" s="3" t="n"/>
+      <c r="F29" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:15</t>
+        </is>
+      </c>
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D30" s="3" t="n"/>
@@ -1292,12 +1292,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>RUIZ JORGE, RICHARD JUAN</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>18:00-22:15</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -1310,16 +1310,8 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -1332,12 +1324,12 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>12:00-17:00</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="D33" s="3" t="n"/>
@@ -1350,16 +1342,8 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>17:30-22:15</t>
-        </is>
-      </c>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -1487,7 +1471,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -1502,12 +1486,12 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>20:00-23:45</t>
+          <t>19:45-23:30</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -1527,7 +1511,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:30-11:15</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -1536,12 +1520,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>14:45-23:45</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -1550,18 +1534,26 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>19:15-22:00</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
@@ -1650,7 +1642,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>APO, ELIZABETH</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -1668,7 +1660,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>APO, YENIFER</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1773,7 +1765,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MARTES 24 DE DICIEMBRE 2024</t>
+          <t>MARTES 31 DE DICIEMBRE 2024</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -1834,7 +1826,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1856,7 +1848,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -1874,7 +1866,7 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) PEREZ GORMAS, ANTHONY</t>
+          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -1894,12 +1886,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -1914,12 +1906,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>11:45-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -1934,32 +1926,40 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-15:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>12:30-16:15</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -1974,42 +1974,26 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:30-17:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>16:00-19:45</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>12:00-15:45</t>
-        </is>
-      </c>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -2022,7 +2006,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -2036,7 +2020,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
@@ -2050,7 +2034,7 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -2070,40 +2054,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:15-13:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>13:30-17:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -2118,12 +2094,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -2138,7 +2114,7 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -2158,12 +2134,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -2178,7 +2154,7 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -2198,7 +2174,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -2218,12 +2194,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MORALES MIRANDA, JUANA</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -2238,12 +2214,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -2256,8 +2232,16 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -2290,7 +2274,7 @@
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -2310,7 +2294,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -2330,12 +2314,12 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
@@ -2350,12 +2334,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -2370,12 +2354,12 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D30" s="3" t="n"/>
@@ -2390,12 +2374,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:45-20:45</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -2408,16 +2392,8 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>16:15-20:00</t>
-        </is>
-      </c>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -2430,12 +2406,12 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>13:30-14:00</t>
         </is>
       </c>
       <c r="D33" s="3" t="n"/>
@@ -2450,12 +2426,12 @@
       <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D34" s="3" t="n"/>
@@ -2612,12 +2588,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:30-11:15</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -2626,12 +2602,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>INGA DELGADO, CARLOS DANIEL</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -2640,12 +2616,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -2660,7 +2636,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -2748,12 +2724,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -2766,12 +2742,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -2780,8 +2756,16 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="n"/>
-      <c r="G54" s="12" t="n"/>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -2792,12 +2776,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -2863,7 +2847,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MIÉRCOLES 25 DE DICIEMBRE 2024</t>
+          <t>MIÉRCOLES 1 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2922,16 +2906,8 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="8" t="inlineStr">
-        <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
-        </is>
-      </c>
-      <c r="C4" s="8" t="inlineStr">
-        <is>
-          <t>11:45-15:30</t>
-        </is>
-      </c>
+      <c r="B4" s="8" t="n"/>
+      <c r="C4" s="8" t="n"/>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="7" t="inlineStr">
         <is>
@@ -2944,16 +2920,8 @@
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
-      <c r="B5" s="12" t="inlineStr">
-        <is>
-          <t>(T) BRANCACHO RAMIREZ, BRINDY</t>
-        </is>
-      </c>
-      <c r="C5" s="12" t="inlineStr">
-        <is>
-          <t>15:15-17:15</t>
-        </is>
-      </c>
+      <c r="B5" s="12" t="n"/>
+      <c r="C5" s="12" t="n"/>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="n"/>
@@ -2962,16 +2930,8 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="10" t="n"/>
@@ -2982,16 +2942,8 @@
       <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>12:15-16:00</t>
-        </is>
-      </c>
+      <c r="B7" s="3" t="n"/>
+      <c r="C7" s="3" t="n"/>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
@@ -3002,16 +2954,8 @@
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
-      <c r="B8" s="3" t="inlineStr">
-        <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr">
-        <is>
-          <t>16:30-20:15</t>
-        </is>
-      </c>
+      <c r="B8" s="3" t="n"/>
+      <c r="C8" s="3" t="n"/>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -3022,16 +2966,8 @@
       <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="inlineStr">
-        <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>12:15-16:00</t>
-        </is>
-      </c>
+      <c r="B9" s="3" t="n"/>
+      <c r="C9" s="3" t="n"/>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
@@ -3042,16 +2978,8 @@
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C10" s="3" t="inlineStr">
-        <is>
-          <t>16:30-20:15</t>
-        </is>
-      </c>
+      <c r="B10" s="3" t="n"/>
+      <c r="C10" s="3" t="n"/>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -3062,16 +2990,8 @@
       <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>12:30-16:15</t>
-        </is>
-      </c>
+      <c r="B11" s="3" t="n"/>
+      <c r="C11" s="3" t="n"/>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
@@ -3082,16 +3002,8 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="C12" s="3" t="inlineStr">
-        <is>
-          <t>16:30-20:15</t>
-        </is>
-      </c>
+      <c r="B12" s="3" t="n"/>
+      <c r="C12" s="3" t="n"/>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -3102,16 +3014,8 @@
       <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>13:15-17:00</t>
-        </is>
-      </c>
+      <c r="B13" s="3" t="n"/>
+      <c r="C13" s="3" t="n"/>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
@@ -3122,16 +3026,8 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -3142,16 +3038,8 @@
       <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>13:15-17:00</t>
-        </is>
-      </c>
+      <c r="B15" s="3" t="n"/>
+      <c r="C15" s="3" t="n"/>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
@@ -3162,16 +3050,8 @@
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
-      <c r="B16" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="C16" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B16" s="3" t="n"/>
+      <c r="C16" s="3" t="n"/>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
@@ -3182,16 +3062,8 @@
       <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="inlineStr">
-        <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
-        </is>
-      </c>
-      <c r="C17" s="3" t="inlineStr">
-        <is>
-          <t>13:30-17:15</t>
-        </is>
-      </c>
+      <c r="B17" s="3" t="n"/>
+      <c r="C17" s="3" t="n"/>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
@@ -3202,16 +3074,8 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -3222,16 +3086,8 @@
       <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="inlineStr">
-        <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
-        </is>
-      </c>
-      <c r="C19" s="3" t="inlineStr">
-        <is>
-          <t>13:30-17:15</t>
-        </is>
-      </c>
+      <c r="B19" s="3" t="n"/>
+      <c r="C19" s="3" t="n"/>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
@@ -3254,16 +3110,8 @@
       <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="inlineStr">
-        <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>13:30-15:15</t>
-        </is>
-      </c>
+      <c r="B21" s="3" t="n"/>
+      <c r="C21" s="3" t="n"/>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
@@ -3274,16 +3122,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>16:30-20:15</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -3548,16 +3388,8 @@
       <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B44" s="3" t="inlineStr">
-        <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
-        </is>
-      </c>
-      <c r="C44" s="3" t="inlineStr">
-        <is>
-          <t>12:00-15:45</t>
-        </is>
-      </c>
+      <c r="B44" s="3" t="n"/>
+      <c r="C44" s="3" t="n"/>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
@@ -3568,16 +3400,8 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>CARRIL DARRIGO, RENZO</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>15:45-19:30</t>
-        </is>
-      </c>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -3588,16 +3412,8 @@
       <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="inlineStr">
-        <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
-        </is>
-      </c>
-      <c r="C46" s="3" t="inlineStr">
-        <is>
-          <t>12:00-15:45</t>
-        </is>
-      </c>
+      <c r="B46" s="3" t="n"/>
+      <c r="C46" s="3" t="n"/>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
@@ -3608,16 +3424,8 @@
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C47" s="3" t="inlineStr">
-        <is>
-          <t>15:45-19:30</t>
-        </is>
-      </c>
+      <c r="B47" s="3" t="n"/>
+      <c r="C47" s="3" t="n"/>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="n"/>
@@ -3628,16 +3436,8 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -3700,16 +3500,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="inlineStr">
-        <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>11:45-15:30</t>
-        </is>
-      </c>
+      <c r="B53" s="3" t="n"/>
+      <c r="C53" s="3" t="n"/>
       <c r="D53" s="3" t="n"/>
       <c r="E53" s="14" t="inlineStr">
         <is>
@@ -3726,16 +3518,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="B54" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
-        </is>
-      </c>
-      <c r="C54" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="B54" s="3" t="n"/>
+      <c r="C54" s="3" t="n"/>
       <c r="D54" s="3" t="n"/>
       <c r="E54" s="13" t="inlineStr">
         <is>
@@ -3752,16 +3536,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="B55" s="3" t="inlineStr">
-        <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B55" s="3" t="n"/>
+      <c r="C55" s="3" t="n"/>
       <c r="D55" s="3" t="n"/>
       <c r="E55" s="14" t="inlineStr">
         <is>
@@ -3825,7 +3601,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>JUEVES 26 DE DICIEMBRE 2024</t>
+          <t>JUEVES 2 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3886,12 +3662,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:00-16:00</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -3902,12 +3678,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>21:30-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -3916,38 +3692,30 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>(T) MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>15:45-18:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>(T) CARRIL DARRIGO, RENZO</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>20:30-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-17:15</t>
+          <t>18:30-21:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -3962,32 +3730,40 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -4002,7 +3778,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -4016,12 +3792,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -4030,7 +3806,7 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
@@ -4050,40 +3826,32 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:45-16:30</t>
+          <t>13:45-21:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -4098,12 +3866,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -4112,7 +3880,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
@@ -4126,7 +3894,7 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
@@ -4146,32 +3914,40 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>19:00-20:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4186,7 +3962,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -4200,12 +3976,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -4219,7 +3995,7 @@
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:00-15:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4234,7 +4010,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -4246,28 +4022,20 @@
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4282,7 +4050,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -4294,28 +4062,20 @@
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -4330,12 +4090,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -4344,12 +4104,12 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>CONDORI FLORES, ROSARIO</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>19:15-23:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H23" s="3" t="n"/>
@@ -4358,12 +4118,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>18:00-18:30</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -4378,12 +4138,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>RUIZ JORGE, RICHARD JUAN</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>13:00-16:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -4398,12 +4158,12 @@
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>19:15-22:00</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -4416,16 +4176,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>12:00-15:45</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -4436,16 +4188,8 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>16:00-19:45</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -4456,16 +4200,8 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>13:00-22:00</t>
-        </is>
-      </c>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -4488,16 +4224,8 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -4520,16 +4248,8 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -4689,7 +4409,7 @@
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:30-23:15</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -4704,7 +4424,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -4718,12 +4438,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -4732,7 +4452,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -4744,12 +4464,12 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>MORALES MIRANDA, JUANA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>18:45-22:30</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -4824,7 +4544,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -4840,7 +4560,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>APO, ELIZABETH</t>
+          <t>APO, YENIFER</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -4858,7 +4578,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>APO, YENIFER</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -4874,7 +4594,7 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
@@ -4963,7 +4683,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>VIERNES 27 DE DICIEMBRE 2024</t>
+          <t>VIERNES 3 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -5024,7 +4744,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -5038,28 +4758,20 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>(T) SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>17:30-21:00</t>
-        </is>
-      </c>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>(T) CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:30-14:00</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -5072,12 +4784,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>13:45-22:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -5092,7 +4804,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -5106,12 +4818,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -5120,26 +4832,18 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:45-15:30</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -5148,7 +4852,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -5160,20 +4864,28 @@
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>12:30-16:15</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -5188,7 +4900,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -5200,20 +4912,28 @@
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:15-21:15</t>
+          <t>12:45-16:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -5228,7 +4948,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -5240,20 +4960,28 @@
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:30-23:30</t>
+          <t>13:00-16:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -5273,7 +5001,7 @@
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:00-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -5282,12 +5010,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -5296,12 +5024,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -5316,40 +5044,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5364,40 +5084,32 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:15-19:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>QUISPE DELGADO, VICTOR HUGO</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>19:15-22:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5412,12 +5124,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>10:15-10:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -5426,12 +5138,12 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="H21" s="3" t="n"/>
@@ -5440,18 +5152,26 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
-      <c r="F22" s="3" t="n"/>
-      <c r="G22" s="3" t="n"/>
+      <c r="F22" s="3" t="inlineStr">
+        <is>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+        </is>
+      </c>
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>18:45-22:30</t>
+        </is>
+      </c>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
@@ -5460,12 +5180,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>RUIZ JORGE, RICHARD JUAN</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -5474,12 +5194,12 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H23" s="3" t="n"/>
@@ -5488,12 +5208,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -5508,12 +5228,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:45-15:30</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -5528,12 +5248,12 @@
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -5548,12 +5268,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -5566,16 +5286,8 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -5588,12 +5300,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -5606,16 +5318,8 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -5626,16 +5330,8 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:30</t>
-        </is>
-      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -5658,16 +5354,8 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>17:15-17:30</t>
-        </is>
-      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -5678,16 +5366,8 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -5815,7 +5495,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:30</t>
+          <t>09:45-18:45</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -5828,8 +5508,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>19:15-23:00</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -5842,12 +5530,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:30-11:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -5856,12 +5544,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -5870,24 +5558,24 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>19:15-23:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -5896,16 +5584,8 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>14:30-23:30</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -5986,12 +5666,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>APO, YENIFER</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -6004,7 +5684,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>APO, ELIZABETH</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -6018,8 +5698,16 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="n"/>
-      <c r="G54" s="12" t="n"/>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -6035,7 +5723,7 @@
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -6101,7 +5789,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>SÁBADO 28 DE DICIEMBRE 2024</t>
+          <t>SÁBADO 4 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -6162,12 +5850,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:00-15:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -6178,12 +5866,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) LEON TICONA, MARIA FERNANDA</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>17:30-20:15</t>
+          <t>22:00-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -6192,38 +5880,30 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>(T) CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>15:30-18:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>20:00-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -6238,12 +5918,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:15-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -6258,12 +5938,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:45-20:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -6278,54 +5958,38 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>15:45-19:30</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -6334,54 +5998,38 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>MORALES MIRANDA, JUANA</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>15:45-19:30</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>QUISPE DELGADO, VICTOR HUGO</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -6390,12 +6038,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>08:15-17:15</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -6410,12 +6058,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>13:30-22:30</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -6430,12 +6078,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -6455,7 +6103,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>13:15-22:15</t>
+          <t>13:45-22:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -6470,12 +6118,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -6490,12 +6138,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>13:30-22:30</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -6510,12 +6158,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -6524,12 +6172,12 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H19" s="3" t="n"/>
@@ -6538,12 +6186,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:30</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -6558,7 +6206,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -6572,12 +6220,12 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H21" s="3" t="n"/>
@@ -6586,12 +6234,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -6606,7 +6254,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -6620,12 +6268,12 @@
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G23" s="3" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="H23" s="3" t="n"/>
@@ -6634,12 +6282,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>RUIZ JORGE, RICHARD JUAN</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -6654,7 +6302,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -6666,20 +6314,28 @@
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -6694,7 +6350,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -6714,12 +6370,12 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
@@ -6734,12 +6390,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:00-18:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6754,12 +6410,12 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>19:00-20:00</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D30" s="3" t="n"/>
@@ -6774,7 +6430,7 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
@@ -6794,12 +6450,12 @@
       <c r="A32" s="14" t="n"/>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D32" s="3" t="n"/>
@@ -6814,7 +6470,7 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
@@ -6834,12 +6490,12 @@
       <c r="A34" s="14" t="n"/>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:15-22:00</t>
         </is>
       </c>
       <c r="D34" s="3" t="n"/>
@@ -6969,7 +6625,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -6984,12 +6640,12 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -7004,12 +6660,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:30-16:30</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -7018,12 +6674,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -7032,12 +6688,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>16:30-17:30</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -7150,7 +6806,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -7166,12 +6822,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -7184,7 +6840,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>APO, ELIZABETH</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -7255,7 +6911,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>DOMINGO 29 DE DICIEMBRE 2024</t>
+          <t>DOMINGO 5 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -7330,38 +6986,54 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>17:30-19:45</t>
+        </is>
+      </c>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:30-19:30</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>(T) RICAPA RAMOS, MILAGROS PATRICIA</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>19:30-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>19:15-22:15</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -7376,12 +7048,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -7396,12 +7068,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>NAVARRO MORENO, ARIADNA NAYLEA</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>12:00-21:00</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -7416,54 +7088,38 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>RUIZ JORGE, RICHARD JUAN</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>15:45-19:30</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>12:30-21:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>QUISPE DELGADO, VICTOR HUGO</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -7472,12 +7128,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>QUINTO SOLORZANO, ALDAIR JEFERSON</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -7486,12 +7142,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -7505,21 +7161,13 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>13:00-16:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>19:45-23:30</t>
-        </is>
-      </c>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -7528,28 +7176,20 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>09:30-18:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
@@ -7561,7 +7201,7 @@
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -7576,40 +7216,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>MORALES MIRANDA, JUANA</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -7629,7 +7261,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:30</t>
+          <t>10:15-19:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -7644,12 +7276,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>19:15-22:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -7664,40 +7296,32 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>CARRIL DARRIGO, RENZO</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>14:30-19:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -7712,12 +7336,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -7726,12 +7350,12 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H21" s="3" t="n"/>
@@ -7740,12 +7364,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -7792,7 +7416,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -7806,12 +7430,12 @@
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="G25" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H25" s="3" t="n"/>
@@ -7820,12 +7444,12 @@
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -7840,7 +7464,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -7854,12 +7478,12 @@
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
         </is>
       </c>
       <c r="G27" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H27" s="3" t="n"/>
@@ -7868,12 +7492,12 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>16:00-17:30</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
@@ -7888,12 +7512,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:30-20:15</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -7906,8 +7530,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>PARIONA CARRASCO, YAZMIN</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -7920,12 +7552,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>DEL AGUILA MURAYARI, DARLA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>13:45-22:30</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -7952,12 +7584,12 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="D33" s="3" t="n"/>
@@ -8094,38 +7726,54 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:30</t>
+          <t>07:30-11:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>15:15-19:00</t>
+        </is>
+      </c>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -8134,12 +7782,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:30-11:15</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -8148,12 +7796,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MARQUEZ, RAUL ANGEL</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -8162,34 +7810,34 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>19:15-23:00</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -8254,7 +7902,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -8270,7 +7918,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>APO, YENIFER</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -8288,7 +7936,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI QUICANO, EMELYN HEIDY</t>
+          <t>APO, YENIFER</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8304,12 +7952,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>LUNES 30 DE DICIEMBRE 2024</t>
+          <t>LUNES 13 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -680,12 +680,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -696,12 +696,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>22:15-22:45</t>
+          <t>21:45-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -710,12 +710,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -728,12 +728,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:00-22:30</t>
+          <t>13:30-22:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -768,7 +768,7 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>13:45-21:45</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -816,26 +816,18 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>11:45-15:30</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>19:30-23:15</t>
-        </is>
-      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -844,12 +836,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -863,7 +855,7 @@
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -872,26 +864,18 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="inlineStr">
-        <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
-        </is>
-      </c>
-      <c r="G12" s="3" t="inlineStr">
-        <is>
-          <t>19:45-23:30</t>
-        </is>
-      </c>
+      <c r="F12" s="3" t="n"/>
+      <c r="G12" s="3" t="n"/>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -900,12 +884,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -914,12 +898,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>19:15-22:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -928,12 +912,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>12:45-16:30</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -948,12 +932,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -968,12 +952,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -988,40 +972,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -1036,12 +1012,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -1056,12 +1032,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>13:15-22:15</t>
+          <t>17:00-21:15</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -1076,40 +1052,32 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>CARRIL DARRIGO, RENZO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -1124,12 +1092,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -1142,16 +1110,8 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -1164,12 +1124,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -1182,16 +1142,8 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -1204,12 +1156,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>12:15-16:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -1222,16 +1174,8 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>MORALES MIRANDA, JUANA</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -1242,44 +1186,20 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>13:45-14:00</t>
-        </is>
-      </c>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="F29" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G29" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:15</t>
-        </is>
-      </c>
+      <c r="F29" s="3" t="n"/>
+      <c r="G29" s="3" t="n"/>
       <c r="H29" s="3" t="n"/>
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -1290,16 +1210,8 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>18:00-22:15</t>
-        </is>
-      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -1322,16 +1234,8 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -1471,7 +1375,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -1486,12 +1390,12 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:45-23:30</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -1511,7 +1415,7 @@
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:30-11:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -1520,12 +1424,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>14:30-18:00</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -1534,24 +1438,24 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>19:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -1647,7 +1551,7 @@
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -1660,7 +1564,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>APO, YENIFER</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1674,16 +1578,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:45-23:30</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -1765,7 +1661,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MARTES 31 DE DICIEMBRE 2024</t>
+          <t>MARTES 14 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -1826,12 +1722,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -1840,38 +1736,54 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>16:45-20:00</t>
+        </is>
+      </c>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>19:45-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:00-17:15</t>
+          <t>13:30-17:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -1886,38 +1798,54 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>16:15-16:45</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:45-20:45</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -1926,12 +1854,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -1940,12 +1868,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>13:45-19:45</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -1954,12 +1882,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:30-16:15</t>
+          <t>13:15-13:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -1979,7 +1907,7 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:30-17:30</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -1992,8 +1920,16 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -2006,12 +1942,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -2020,12 +1956,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -2034,12 +1970,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -2054,32 +1990,40 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>CARRIL DARRIGO, RENZO</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>13:30-17:15</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -2094,12 +2038,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -2114,12 +2058,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>13:30-17:15</t>
+          <t>17:15-21:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -2134,12 +2078,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -2159,7 +2103,7 @@
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>13:30-17:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -2174,12 +2118,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -2194,12 +2138,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -2214,12 +2158,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -2234,12 +2178,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -2254,12 +2198,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -2272,16 +2216,8 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>16:00-19:45</t>
-        </is>
-      </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -2292,16 +2228,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>11:00-14:45</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -2312,16 +2240,8 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>CARRIL DARRIGO, RENZO</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -2332,16 +2252,8 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>11:15-15:00</t>
-        </is>
-      </c>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -2352,16 +2264,8 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -2372,16 +2276,8 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>11:45-20:45</t>
-        </is>
-      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -2404,16 +2300,8 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>13:30-14:00</t>
-        </is>
-      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -2424,16 +2312,8 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -2561,7 +2441,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -2574,8 +2454,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -2588,40 +2476,32 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:30-11:15</t>
+          <t>07:00-16:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>INGA DELGADO, CARLOS DANIEL</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -2634,16 +2514,8 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>11:45-20:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -2724,12 +2596,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -2742,12 +2614,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -2763,7 +2635,7 @@
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -2776,12 +2648,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -2847,7 +2719,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MIÉRCOLES 1 DE ENERO 2025</t>
+          <t>MIÉRCOLES 15 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2906,22 +2778,46 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="B4" s="8" t="n"/>
-      <c r="C4" s="8" t="n"/>
+      <c r="B4" s="8" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="C4" s="8" t="inlineStr">
+        <is>
+          <t>06:30-10:15</t>
+        </is>
+      </c>
       <c r="D4" s="8" t="n"/>
       <c r="E4" s="7" t="inlineStr">
         <is>
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>21:45-22:45</t>
+        </is>
+      </c>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
-      <c r="B5" s="12" t="n"/>
-      <c r="C5" s="12" t="n"/>
+      <c r="B5" s="12" t="inlineStr">
+        <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="C5" s="12" t="inlineStr">
+        <is>
+          <t>10:00-13:45</t>
+        </is>
+      </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="n"/>
@@ -2930,8 +2826,16 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="10" t="n"/>
-      <c r="C6" s="10" t="n"/>
+      <c r="B6" s="10" t="inlineStr">
+        <is>
+          <t>(T) QUIQUIA RICALDE, LILIA MARIA</t>
+        </is>
+      </c>
+      <c r="C6" s="10" t="inlineStr">
+        <is>
+          <t>13:30-22:00</t>
+        </is>
+      </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="10" t="n"/>
@@ -2942,20 +2846,44 @@
       <c r="A7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="B7" s="3" t="n"/>
-      <c r="C7" s="3" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>08:00-11:45</t>
+        </is>
+      </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>16:00-19:45</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
-      <c r="B8" s="3" t="n"/>
-      <c r="C8" s="3" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>12:00-15:45</t>
+        </is>
+      </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="n"/>
@@ -2966,20 +2894,44 @@
       <c r="A9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="B9" s="3" t="n"/>
-      <c r="C9" s="3" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>08:15-12:00</t>
+        </is>
+      </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>13:45-21:45</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
-      <c r="B10" s="3" t="n"/>
-      <c r="C10" s="3" t="n"/>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+        </is>
+      </c>
+      <c r="C10" s="3" t="inlineStr">
+        <is>
+          <t>13:00-13:30</t>
+        </is>
+      </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
       <c r="F10" s="3" t="n"/>
@@ -2990,8 +2942,16 @@
       <c r="A11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="B11" s="3" t="n"/>
-      <c r="C11" s="3" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>IDME GOMEZ, MILAGROS</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>09:30-13:15</t>
+        </is>
+      </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
@@ -3002,8 +2962,16 @@
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
-      <c r="B12" s="3" t="n"/>
-      <c r="C12" s="3" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="inlineStr">
+        <is>
+          <t>13:45-22:45</t>
+        </is>
+      </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
       <c r="F12" s="3" t="n"/>
@@ -3014,20 +2982,44 @@
       <c r="A13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="B13" s="3" t="n"/>
-      <c r="C13" s="3" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>10:15-14:00</t>
+        </is>
+      </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>14:15-18:00</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -3038,20 +3030,44 @@
       <c r="A15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="B15" s="3" t="n"/>
-      <c r="C15" s="3" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>10:30-14:15</t>
+        </is>
+      </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
-      <c r="B16" s="3" t="n"/>
-      <c r="C16" s="3" t="n"/>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="C16" s="3" t="inlineStr">
+        <is>
+          <t>14:45-18:30</t>
+        </is>
+      </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
       <c r="F16" s="3" t="n"/>
@@ -3062,8 +3078,16 @@
       <c r="A17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="B17" s="3" t="n"/>
-      <c r="C17" s="3" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
@@ -3074,8 +3098,16 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -3086,8 +3118,16 @@
       <c r="A19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="B19" s="3" t="n"/>
-      <c r="C19" s="3" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
@@ -3098,8 +3138,16 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -3110,8 +3158,16 @@
       <c r="A21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="B21" s="3" t="n"/>
-      <c r="C21" s="3" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr">
+        <is>
+          <t>11:00-14:45</t>
+        </is>
+      </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
@@ -3122,8 +3178,16 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>17:30-21:15</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -3134,8 +3198,16 @@
       <c r="A23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="B23" s="3" t="n"/>
-      <c r="C23" s="3" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
@@ -3158,8 +3230,16 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -3182,8 +3262,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -3388,8 +3476,16 @@
       <c r="A44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="B44" s="3" t="n"/>
-      <c r="C44" s="3" t="n"/>
+      <c r="B44" s="3" t="inlineStr">
+        <is>
+          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
+        </is>
+      </c>
+      <c r="C44" s="3" t="inlineStr">
+        <is>
+          <t>09:45-18:45</t>
+        </is>
+      </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
@@ -3412,32 +3508,72 @@
       <c r="A46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="B46" s="3" t="n"/>
-      <c r="C46" s="3" t="n"/>
+      <c r="B46" s="3" t="inlineStr">
+        <is>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+        </is>
+      </c>
+      <c r="C46" s="3" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="3" t="n"/>
-      <c r="C47" s="3" t="n"/>
+      <c r="B47" s="3" t="inlineStr">
+        <is>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="C47" s="3" t="inlineStr">
+        <is>
+          <t>10:45-14:30</t>
+        </is>
+      </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>13:45-22:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -3500,16 +3636,32 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="B53" s="3" t="n"/>
-      <c r="C53" s="3" t="n"/>
+      <c r="B53" s="3" t="inlineStr">
+        <is>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr">
+        <is>
+          <t>07:00-10:45</t>
+        </is>
+      </c>
       <c r="D53" s="3" t="n"/>
       <c r="E53" s="14" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="8" t="n"/>
-      <c r="G53" s="8" t="n"/>
+      <c r="F53" s="8" t="inlineStr">
+        <is>
+          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
+        </is>
+      </c>
+      <c r="G53" s="8" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
@@ -3518,16 +3670,32 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="B54" s="3" t="n"/>
-      <c r="C54" s="3" t="n"/>
+      <c r="B54" s="3" t="inlineStr">
+        <is>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+        </is>
+      </c>
+      <c r="C54" s="3" t="inlineStr">
+        <is>
+          <t>10:45-14:30</t>
+        </is>
+      </c>
       <c r="D54" s="3" t="n"/>
       <c r="E54" s="13" t="inlineStr">
         <is>
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="n"/>
-      <c r="G54" s="12" t="n"/>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -3536,8 +3704,16 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="B55" s="3" t="n"/>
-      <c r="C55" s="3" t="n"/>
+      <c r="B55" s="3" t="inlineStr">
+        <is>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="D55" s="3" t="n"/>
       <c r="E55" s="14" t="inlineStr">
         <is>
@@ -3601,7 +3777,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>JUEVES 2 DE ENERO 2025</t>
+          <t>JUEVES 16 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3662,12 +3838,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-16:00</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -3678,12 +3854,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+          <t>(T) PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:30-22:45</t>
+          <t>16:45-20:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -3692,30 +3868,38 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>15:45-18:45</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>20:00-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>(T) MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:30-21:45</t>
+          <t>13:30-17:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -3730,40 +3914,32 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>16:00-19:45</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -3778,12 +3954,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -3792,7 +3968,7 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
@@ -3811,7 +3987,7 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:30-16:15</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -3831,27 +4007,35 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:15-13:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:30</t>
+          <t>13:00-16:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -3866,12 +4050,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -3880,12 +4064,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>13:45-20:00</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -3894,12 +4078,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>13:15-13:30</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -3914,12 +4098,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -3928,12 +4112,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -3942,7 +4126,7 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
@@ -3962,12 +4146,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -3976,12 +4160,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -3990,12 +4174,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:00-15:45</t>
+          <t>16:30-16:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4010,7 +4194,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -4030,12 +4214,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4050,12 +4234,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -4068,16 +4252,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>16:45-20:30</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -4090,42 +4266,26 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>18:00-18:30</t>
-        </is>
-      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -4136,16 +4296,8 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>13:00-16:45</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -4156,16 +4308,8 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:00</t>
-        </is>
-      </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -4389,7 +4533,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -4404,12 +4548,12 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>QUISPE DELGADO, VICTOR HUGO</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:15-23:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -4424,7 +4568,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -4438,12 +4582,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -4452,7 +4596,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -4464,12 +4608,12 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -4544,7 +4688,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -4560,12 +4704,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>APO, YENIFER</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -4578,12 +4722,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -4599,7 +4743,7 @@
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -4612,12 +4756,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -4683,7 +4827,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>VIERNES 3 DE ENERO 2025</t>
+          <t>VIERNES 17 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -4744,12 +4888,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -4758,44 +4902,68 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="n"/>
-      <c r="G4" s="8" t="n"/>
+      <c r="F4" s="8" t="inlineStr">
+        <is>
+          <t>(T) ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G4" s="8" t="inlineStr">
+        <is>
+          <t>15:30-18:45</t>
+        </is>
+      </c>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:30-14:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>(T) MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:45-22:45</t>
+          <t>13:30-15:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>22:00-22:45</t>
+        </is>
+      </c>
       <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -4804,40 +4972,32 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>16:00-19:45</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>11:30-20:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -4866,12 +5026,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>13:45-22:00</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -4880,12 +5040,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:30-16:15</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -4905,35 +5065,27 @@
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:45-16:30</t>
+          <t>13:45-22:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -4948,12 +5100,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -4962,12 +5114,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -4976,12 +5128,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:00-16:45</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -4996,12 +5148,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-14:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -5010,12 +5162,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -5024,12 +5176,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -5044,32 +5196,40 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5084,32 +5244,40 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:15-19:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>19:15-22:00</t>
+          <t>15:00-15:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5129,49 +5297,33 @@
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:15-10:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>15:00-18:45</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>16:45-21:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
-      <c r="F22" s="3" t="inlineStr">
-        <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
-        </is>
-      </c>
-      <c r="G22" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
+      <c r="F22" s="3" t="n"/>
+      <c r="G22" s="3" t="n"/>
       <c r="H22" s="3" t="n"/>
     </row>
     <row r="23" ht="19.5" customHeight="1">
@@ -5180,42 +5332,26 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -5228,12 +5364,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -5246,16 +5382,8 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>IDME GOMEZ, MILAGROS</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -5268,12 +5396,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -5298,16 +5426,8 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B29" s="3" t="n"/>
+      <c r="C29" s="3" t="n"/>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -5495,7 +5615,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:45-18:45</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -5508,16 +5628,8 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -5530,7 +5642,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -5544,7 +5656,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -5558,7 +5670,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -5570,7 +5682,7 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
@@ -5584,8 +5696,16 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>13:45-22:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -5666,7 +5786,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>APO, YENIFER</t>
+          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -5732,8 +5852,16 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="10" t="n"/>
-      <c r="G55" s="10" t="n"/>
+      <c r="F55" s="10" t="inlineStr">
+        <is>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+        </is>
+      </c>
+      <c r="G55" s="10" t="inlineStr">
+        <is>
+          <t>19:15-23:00</t>
+        </is>
+      </c>
       <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
@@ -5789,7 +5917,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>SÁBADO 4 DE ENERO 2025</t>
+          <t>SÁBADO 18 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -5850,12 +5978,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-15:45</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -5866,12 +5994,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+          <t>(T) NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>22:00-22:45</t>
+          <t>16:30-19:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -5880,30 +6008,38 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) CARRIL DARRIGO, RENZO</t>
+          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>15:30-18:45</t>
+          <t>10:00-13:30</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
+          <t>(T) IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>13:15-16:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -5918,12 +6054,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:15-17:00</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -5938,12 +6074,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>11:30-19:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -5958,12 +6094,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -5978,12 +6114,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -5998,12 +6134,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -6018,12 +6154,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>12:45-21:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -6038,12 +6174,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -6058,12 +6194,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:30-22:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -6078,38 +6214,54 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>09:45-10:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>14:00-17:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
-      <c r="F16" s="3" t="n"/>
-      <c r="G16" s="3" t="n"/>
+      <c r="F16" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>17:45-21:30</t>
+        </is>
+      </c>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -6118,12 +6270,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -6138,12 +6290,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>15:00-22:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -6158,12 +6310,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -6172,12 +6324,12 @@
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="G19" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:15-22:45</t>
         </is>
       </c>
       <c r="H19" s="3" t="n"/>
@@ -6186,12 +6338,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -6206,12 +6358,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -6220,12 +6372,12 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="H21" s="3" t="n"/>
@@ -6234,12 +6386,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>15:30-16:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -6254,40 +6406,32 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -6302,7 +6446,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -6314,28 +6458,20 @@
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>15:45-19:30</t>
-        </is>
-      </c>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -6350,7 +6486,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -6370,12 +6506,12 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
@@ -6390,12 +6526,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>13:00-13:15</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6408,16 +6544,8 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>16:00-19:45</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -6428,16 +6556,8 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>11:15-15:00</t>
-        </is>
-      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -6448,16 +6568,8 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -6468,16 +6580,8 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>11:15-15:00</t>
-        </is>
-      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -6488,16 +6592,8 @@
     </row>
     <row r="34" ht="18.75" customHeight="1">
       <c r="A34" s="14" t="n"/>
-      <c r="B34" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C34" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:00</t>
-        </is>
-      </c>
+      <c r="B34" s="3" t="n"/>
+      <c r="C34" s="3" t="n"/>
       <c r="D34" s="3" t="n"/>
       <c r="E34" s="14" t="n"/>
       <c r="F34" s="3" t="n"/>
@@ -6638,16 +6734,8 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -6660,12 +6748,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -6674,12 +6762,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -6688,26 +6776,42 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>PARIONA CARRASCO, YAZMIN</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>15:00-22:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -6772,12 +6876,12 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
@@ -6788,7 +6892,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>APO, YENIFER</t>
+          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -6827,7 +6931,7 @@
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -6840,7 +6944,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -6911,7 +7015,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>DOMINGO 5 DE ENERO 2025</t>
+          <t>DOMINGO 19 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -6972,12 +7076,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -6988,12 +7092,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) POVEA CANTARO, FARID YASSER</t>
+          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>17:30-19:45</t>
+          <t>22:15-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -7002,38 +7106,30 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>(T) RICAPA RAMOS, MILAGROS PATRICIA</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>19:30-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -7048,32 +7144,40 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>17:30-21:15</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -7088,7 +7192,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -7100,20 +7204,28 @@
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>17:30-21:15</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:30-21:30</t>
+          <t>12:45-16:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -7128,40 +7240,32 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>LLACSAHUANGA VALLE, ANA MARIA</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:00-16:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -7176,12 +7280,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -7196,12 +7300,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -7216,12 +7320,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -7236,12 +7340,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CARRIL DARRIGO, RENZO</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -7261,7 +7365,7 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-19:15</t>
+          <t>11:00-20:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -7274,16 +7378,8 @@
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:00</t>
-        </is>
-      </c>
+      <c r="B18" s="3" t="n"/>
+      <c r="C18" s="3" t="n"/>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -7296,12 +7392,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>HUAMAN HUAMANI, ALEXIS JAVIER</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -7316,12 +7412,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>14:30-19:30</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -7336,40 +7432,32 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -7384,12 +7472,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>11:15-20:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -7416,42 +7504,26 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-20:15</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -7464,42 +7536,26 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>12:15-21:15</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="F27" s="3" t="inlineStr">
-        <is>
-          <t>LIZARME HUINCHO, BRIYITH JASUMI</t>
-        </is>
-      </c>
-      <c r="G27" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F27" s="3" t="n"/>
+      <c r="G27" s="3" t="n"/>
       <c r="H27" s="3" t="n"/>
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>16:00-17:30</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -7512,12 +7568,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>13:45-17:30</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -7532,12 +7588,12 @@
       <c r="A30" s="14" t="n"/>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D30" s="3" t="n"/>
@@ -7552,12 +7608,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>DEL AGUILA MURAYARI, DARLA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:30</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -7570,8 +7626,16 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="n"/>
-      <c r="C32" s="3" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -7584,12 +7648,12 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>CONDORI FLORES, ROSARIO</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>19:15-23:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D33" s="3" t="n"/>
@@ -7726,12 +7790,12 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>07:30-11:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -7740,12 +7804,12 @@
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="H44" s="3" t="n"/>
@@ -7754,24 +7818,24 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:00-22:15</t>
         </is>
       </c>
       <c r="H45" s="3" t="n"/>
@@ -7782,7 +7846,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7796,12 +7860,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -7810,12 +7874,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:45-15:30</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -7830,12 +7894,12 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CONDORI FLORES, ROSARIO</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
         <is>
-          <t>19:15-23:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D48" s="3" t="n"/>
@@ -7902,7 +7966,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -7918,12 +7982,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -7936,7 +8000,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>APO, YENIFER</t>
+          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -7952,12 +8016,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -7984,8 +8048,16 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="10" t="n"/>
-      <c r="G55" s="10" t="n"/>
+      <c r="F55" s="10" t="inlineStr">
+        <is>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+        </is>
+      </c>
+      <c r="G55" s="10" t="inlineStr">
+        <is>
+          <t>19:15-23:00</t>
+        </is>
+      </c>
       <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>LUNES 13 DE ENERO 2025</t>
+          <t>LUNES 27 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -680,7 +680,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -696,12 +696,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -710,36 +710,52 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>(T) JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:00-12:30</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+          <t>(T) BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-22:00</t>
+          <t>12:15-14:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>21:30-22:45</t>
+        </is>
+      </c>
       <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -768,7 +784,7 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -788,12 +804,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:45-10:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -802,12 +818,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:45</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -816,18 +832,26 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:00-13:30</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>17:45-21:30</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -836,12 +860,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -850,12 +874,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -864,12 +888,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -884,40 +908,32 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:45</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -932,12 +948,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -952,12 +968,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -977,27 +993,35 @@
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:00-12:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>17:00-22:00</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>13:00-16:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -1012,12 +1036,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>13:45-21:30</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -1030,16 +1054,8 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>17:00-21:15</t>
-        </is>
-      </c>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -1052,12 +1068,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -1070,16 +1086,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>CARRIL DARRIGO, RENZO</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -1092,7 +1100,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -1124,12 +1132,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -1154,16 +1162,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -1390,7 +1390,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1424,12 +1424,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:00</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -1438,7 +1438,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -1450,12 +1450,12 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:30-21:15</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -1551,7 +1551,7 @@
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>19:15-23:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -1578,8 +1578,16 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="n"/>
-      <c r="G54" s="12" t="n"/>
+      <c r="F54" s="12" t="inlineStr">
+        <is>
+          <t>CONDORI FLORES, ROSARIO</t>
+        </is>
+      </c>
+      <c r="G54" s="12" t="inlineStr">
+        <is>
+          <t>19:15-23:00</t>
+        </is>
+      </c>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -1661,7 +1669,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MARTES 14 DE ENERO 2025</t>
+          <t>MARTES 28 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -1722,12 +1730,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:00-16:00</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -1738,12 +1746,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>16:45-20:00</t>
+          <t>21:00-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -1752,38 +1760,30 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>(T) FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>15:45-19:00</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>19:45-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>(T) VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-17:00</t>
+          <t>18:45-21:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -1798,54 +1798,38 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>16:15-16:45</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -1854,12 +1838,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -1868,12 +1852,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>13:45-19:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -1882,12 +1866,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:15-13:30</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -1902,20 +1886,28 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>09:15-13:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
@@ -1927,7 +1919,7 @@
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -1942,12 +1934,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -1956,12 +1948,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -1970,12 +1962,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>15:15-15:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -1990,40 +1982,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>CARRIL DARRIGO, RENZO</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -2038,12 +2022,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -2058,7 +2042,7 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -2078,12 +2062,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -2098,12 +2082,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:15-21:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -2118,12 +2102,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -2138,12 +2122,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -2158,12 +2142,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -2178,12 +2162,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -2198,12 +2182,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:30-18:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -2441,7 +2425,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -2456,7 +2440,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2476,38 +2460,54 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-16:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>15:00-18:45</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>19:00-21:00</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
@@ -2596,12 +2596,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -2614,12 +2614,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -2630,7 +2630,7 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -2719,7 +2719,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MIÉRCOLES 15 DE ENERO 2025</t>
+          <t>MIÉRCOLES 29 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2780,7 +2780,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -2796,12 +2796,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>(T) ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:45-22:45</t>
+          <t>15:30-19:00</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -2810,7 +2810,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -2820,26 +2820,42 @@
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>18:45-22:30</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-22:00</t>
+          <t>13:30-15:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>22:15-22:45</t>
+        </is>
+      </c>
       <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -2848,7 +2864,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -2862,12 +2878,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>13:45-22:15</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -2876,12 +2892,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -2896,12 +2912,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -2910,12 +2926,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:45</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -2924,12 +2940,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:00-13:30</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -2944,32 +2960,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -2984,12 +3008,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -2998,12 +3022,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -3012,12 +3036,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -3032,12 +3056,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -3046,12 +3070,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -3060,12 +3084,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>15:15-15:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -3080,7 +3104,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -3100,12 +3124,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -3120,12 +3144,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -3140,12 +3164,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -3160,12 +3184,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -3180,12 +3204,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -3200,12 +3224,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:30-21:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -3230,16 +3254,8 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -3262,16 +3278,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -3483,7 +3491,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:45-18:45</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -3496,8 +3504,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -3522,58 +3538,34 @@
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:45-19:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>18:30-22:15</t>
-        </is>
-      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>13:45-22:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -3654,7 +3646,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -3688,12 +3680,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -3777,7 +3769,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>JUEVES 16 DE ENERO 2025</t>
+          <t>JUEVES 30 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3854,12 +3846,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) PEREZ GORMAS, ANTHONY</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>16:45-20:15</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -3868,7 +3860,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -3880,12 +3872,12 @@
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>20:00-22:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -3894,12 +3886,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-17:00</t>
+          <t>13:30-15:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -3914,38 +3906,54 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>14:00-17:45</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>12:00-13:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>17:45-21:30</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -3954,12 +3962,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -3968,12 +3976,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -3982,12 +3990,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -4002,12 +4010,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:15-13:00</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -4016,12 +4024,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -4030,12 +4038,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:00-16:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -4050,12 +4058,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:30-13:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -4064,12 +4072,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>13:45-20:00</t>
+          <t>19:00-19:00</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -4078,12 +4086,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>13:15-13:30</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -4098,40 +4106,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4146,40 +4146,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>17:30-21:15</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:30-16:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4194,12 +4186,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -4214,12 +4206,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4234,12 +4226,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -4252,8 +4244,16 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -4266,12 +4266,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -4296,8 +4296,16 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18:30-21:15</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -4533,7 +4541,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -4548,7 +4556,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -4568,54 +4576,38 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:00-16:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>15:00-18:45</t>
-        </is>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
@@ -4688,7 +4680,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -4709,7 +4701,7 @@
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -4722,12 +4714,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -4756,12 +4748,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -4827,7 +4819,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>VIERNES 17 DE ENERO 2025</t>
+          <t>VIERNES 31 DE ENERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -4888,12 +4880,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -4904,12 +4896,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>(T) BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>15:30-18:45</t>
+          <t>17:30-20:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -4918,24 +4910,24 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>20:30-22:45</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -4944,26 +4936,18 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-15:45</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>22:00-22:45</t>
-        </is>
-      </c>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
       <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -4972,12 +4956,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -4992,12 +4976,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:30-20:30</t>
+          <t>13:45-20:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -5017,7 +5001,7 @@
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -5026,12 +5010,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -5040,12 +5024,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -5060,32 +5044,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -5100,42 +5092,26 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:45-19:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>14:00-17:45</t>
-        </is>
-      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -5148,12 +5124,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -5162,12 +5138,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -5176,12 +5152,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -5196,12 +5172,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -5210,7 +5186,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -5224,12 +5200,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:30-19:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5244,40 +5220,32 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>16:30-20:15</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:00-15:30</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5292,32 +5260,40 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>17:45-21:30</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>16:45-21:30</t>
+          <t>17:00-17:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -5332,12 +5308,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -5362,16 +5338,8 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -5394,16 +5362,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -5615,7 +5575,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:30</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -5628,8 +5588,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>18:00-22:45</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -5642,12 +5610,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -5656,12 +5624,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -5670,42 +5638,26 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>12:45-16:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>13:45-22:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -5770,7 +5722,7 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
@@ -5786,7 +5738,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -5804,7 +5756,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -5820,12 +5772,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -5852,16 +5804,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr">
-        <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
-        </is>
-      </c>
-      <c r="G55" s="10" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
       <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
@@ -5917,7 +5861,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>SÁBADO 18 DE ENERO 2025</t>
+          <t>SÁBADO 1 DE FEBRERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -5978,12 +5922,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>07:30-16:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -5994,12 +5938,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>16:30-19:15</t>
+          <t>21:00-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -6008,38 +5952,30 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>(T) PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-13:30</t>
+          <t>16:00-19:00</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) IDME GOMEZ, MILAGROS</t>
+          <t>(T) VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:15-16:45</t>
+          <t>18:45-21:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -6054,12 +5990,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -6074,12 +6010,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:30-19:45</t>
+          <t>12:15-21:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -6094,32 +6030,40 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>12:45-16:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -6134,32 +6078,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>09:00-14:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -6174,12 +6126,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -6194,12 +6146,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>14:15-22:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -6214,12 +6166,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>09:45-10:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -6228,12 +6180,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>19:00-21:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -6242,26 +6194,18 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
       <c r="E16" s="14" t="n"/>
-      <c r="F16" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G16" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="F16" s="3" t="n"/>
+      <c r="G16" s="3" t="n"/>
       <c r="H16" s="3" t="n"/>
     </row>
     <row r="17" ht="19.5" customHeight="1">
@@ -6270,7 +6214,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -6282,20 +6226,28 @@
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:00-22:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -6310,7 +6262,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -6322,23 +6274,15 @@
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>19:15-22:45</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -6358,7 +6302,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -6372,12 +6316,12 @@
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G21" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="H21" s="3" t="n"/>
@@ -6386,12 +6330,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:30-16:30</t>
+          <t>15:15-16:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -6406,7 +6350,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -6426,7 +6370,7 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
@@ -6446,7 +6390,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -6466,7 +6410,7 @@
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
@@ -6486,12 +6430,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:00-20:00</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -6504,16 +6448,8 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>18:45-22:30</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -6526,12 +6462,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>13:00-13:15</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6544,8 +6480,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>18:30-18:45</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -6734,8 +6678,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -6748,70 +6700,46 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>07:45-16:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>15:00-22:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -6876,12 +6804,12 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
@@ -6892,7 +6820,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -6910,12 +6838,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -6926,7 +6854,7 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
@@ -6944,7 +6872,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -7015,7 +6943,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>DOMINGO 19 DE ENERO 2025</t>
+          <t>DOMINGO 2 DE FEBRERO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -7076,12 +7004,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-10:15</t>
+          <t>06:30-15:30</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -7092,12 +7020,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>(T) NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>22:15-22:45</t>
+          <t>21:15-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -7106,12 +7034,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -7124,12 +7052,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>(T) VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-22:30</t>
+          <t>18:45-21:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -7144,40 +7072,32 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:15-12:00</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>17:30-21:15</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>12:45-21:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -7192,40 +7112,32 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>17:30-21:15</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:45-16:30</t>
+          <t>13:30-22:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -7240,32 +7152,40 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="n"/>
-      <c r="G11" s="3" t="n"/>
+      <c r="F11" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+        </is>
+      </c>
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -7280,32 +7200,40 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -7320,32 +7248,40 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -7360,12 +7296,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>10:45-19:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -7392,12 +7328,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-20:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -7410,16 +7346,8 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -7432,12 +7360,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -7452,12 +7380,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -7472,12 +7400,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:15-20:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -7490,8 +7418,16 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>17:30-21:15</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -7504,12 +7440,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:15-20:15</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -7522,8 +7458,16 @@
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="n"/>
-      <c r="C26" s="3" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="C26" s="3" t="inlineStr">
+        <is>
+          <t>17:30-21:15</t>
+        </is>
+      </c>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -7536,12 +7480,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>12:15-21:15</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -7554,8 +7498,16 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -7568,12 +7520,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>13:45-17:30</t>
+          <t>12:00-21:00</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -7586,16 +7538,8 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -7608,12 +7552,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>PARIONA CARRASCO, YAZMIN</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>12:00-20:45</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -7626,16 +7570,8 @@
     </row>
     <row r="32" ht="18.75" customHeight="1">
       <c r="A32" s="14" t="n"/>
-      <c r="B32" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="B32" s="3" t="n"/>
+      <c r="C32" s="3" t="n"/>
       <c r="D32" s="3" t="n"/>
       <c r="E32" s="14" t="n"/>
       <c r="F32" s="3" t="n"/>
@@ -7648,12 +7584,12 @@
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D33" s="3" t="n"/>
@@ -7790,7 +7726,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -7809,7 +7745,7 @@
       </c>
       <c r="G44" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H44" s="3" t="n"/>
@@ -7818,24 +7754,24 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="G45" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:15</t>
+          <t>18:30-18:45</t>
         </is>
       </c>
       <c r="H45" s="3" t="n"/>
@@ -7846,40 +7782,32 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>17:30-21:15</t>
-        </is>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -7894,7 +7822,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7982,12 +7910,12 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H53" s="8" t="n"/>
@@ -8000,7 +7928,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ MALCA, YENIFER ANGELICA</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8016,12 +7944,12 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="H54" s="12" t="n"/>
@@ -8050,7 +7978,7 @@
       </c>
       <c r="F55" s="10" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="G55" s="10" t="inlineStr">

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -696,12 +696,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -710,24 +710,24 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>10:00-12:30</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>20:00-22:45</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -736,26 +736,18 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) BRANCACHO RAMIREZ, BRINDY</t>
+          <t>(T) ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>12:15-14:45</t>
+          <t>13:30-16:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>21:30-22:45</t>
-        </is>
-      </c>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
       <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -764,32 +756,40 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>16:15-20:00</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>12:30-16:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -804,28 +804,20 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:45-10:00</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>14:00-17:45</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
@@ -837,21 +829,13 @@
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="inlineStr">
-        <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
-        </is>
-      </c>
-      <c r="G10" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="F10" s="3" t="n"/>
+      <c r="G10" s="3" t="n"/>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -860,12 +844,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -874,12 +858,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>13:45-20:00</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -888,12 +872,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -908,32 +892,40 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -948,32 +940,40 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -988,12 +988,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-12:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -1002,12 +1002,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>17:00-22:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -1016,12 +1016,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>13:00-16:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -1036,12 +1036,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>13:45-21:30</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -1054,8 +1054,16 @@
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>17:00-22:00</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -1068,12 +1076,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -1086,8 +1094,16 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>17:15-21:00</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -1100,12 +1116,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -1118,8 +1134,16 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="n"/>
-      <c r="C24" s="3" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>17:15-21:00</t>
+        </is>
+      </c>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -1132,12 +1156,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -1162,8 +1186,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -1186,8 +1218,16 @@
       <c r="A29" s="14" t="n">
         <v>13</v>
       </c>
-      <c r="B29" s="3" t="n"/>
-      <c r="C29" s="3" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="D29" s="3" t="n"/>
       <c r="E29" s="14" t="n">
         <v>13</v>
@@ -1210,8 +1250,16 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="n"/>
-      <c r="C31" s="3" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C31" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -1375,7 +1423,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -1390,7 +1438,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1424,12 +1472,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -1438,24 +1486,24 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>18:30-21:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -1546,7 +1594,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -1580,7 +1628,7 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>CONDORI FLORES, ROSARIO</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
@@ -1730,7 +1778,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -1751,7 +1799,7 @@
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:00-22:45</t>
+          <t>22:00-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -1760,7 +1808,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>(T) LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -1783,7 +1831,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-21:15</t>
+          <t>18:45-22:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -1798,38 +1846,54 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>15:15-19:00</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:00</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -1838,40 +1902,32 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>17:15-21:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -1886,12 +1942,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:15-13:00</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -1900,12 +1956,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -1914,12 +1970,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>13:15-17:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -1934,12 +1990,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -1948,12 +2004,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>16:00-19:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -1962,12 +2018,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>15:15-15:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -1982,32 +2038,40 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -2022,32 +2086,40 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>16:30-20:15</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>17:15-21:00</t>
+          <t>15:15-15:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -2062,12 +2134,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -2082,12 +2154,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:15-21:00</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -2102,12 +2174,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -2122,7 +2194,7 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -2142,12 +2214,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -2162,12 +2234,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -2182,12 +2254,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:30-18:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -2212,8 +2284,16 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="n"/>
-      <c r="C27" s="3" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>18:30-18:45</t>
+        </is>
+      </c>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -2425,7 +2505,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:30</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -2460,7 +2540,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2474,12 +2554,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -2488,7 +2568,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2500,12 +2580,12 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -2796,12 +2876,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>(T) NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>15:30-19:00</t>
+          <t>16:15-19:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -2810,7 +2890,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -2822,12 +2902,12 @@
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>18:45-22:30</t>
+          <t>19:30-22:45</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -2836,26 +2916,18 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>(T) ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-15:45</t>
+          <t>13:30-16:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
-      <c r="F6" s="10" t="inlineStr">
-        <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="G6" s="10" t="inlineStr">
-        <is>
-          <t>22:15-22:45</t>
-        </is>
-      </c>
+      <c r="F6" s="10" t="n"/>
+      <c r="G6" s="10" t="n"/>
       <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -2864,12 +2936,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -2878,12 +2950,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -2892,18 +2964,26 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -2912,7 +2992,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -2926,12 +3006,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>13:45-19:30</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -2940,12 +3020,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>12:45-13:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -2960,7 +3040,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -2974,12 +3054,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -2988,12 +3068,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -3008,42 +3088,26 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:30-19:30</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="C14" s="3" t="inlineStr">
-        <is>
-          <t>15:00-18:45</t>
-        </is>
-      </c>
+      <c r="B14" s="3" t="n"/>
+      <c r="C14" s="3" t="n"/>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -3056,12 +3120,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -3070,12 +3134,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -3084,12 +3148,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:15-15:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -3104,7 +3168,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -3116,20 +3180,28 @@
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>17:00-20:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>16:00-16:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -3144,12 +3216,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -3164,12 +3236,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>17:15-21:00</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -3184,12 +3256,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -3202,16 +3274,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -3224,12 +3288,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:30-21:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -3254,8 +3318,16 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -3491,7 +3563,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:30-18:30</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -3506,7 +3578,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -3526,7 +3598,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -3538,26 +3610,42 @@
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-19:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
@@ -3846,12 +3934,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>15:30-19:15</t>
+          <t>16:30-19:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -3860,7 +3948,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -3877,7 +3965,7 @@
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>19:30-22:45</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -3886,12 +3974,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-15:45</t>
+          <t>13:30-16:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -3906,12 +3994,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -3920,12 +4008,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -3934,24 +4022,24 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:00-13:30</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>19:00-19:30</t>
         </is>
       </c>
       <c r="H8" s="3" t="n"/>
@@ -3962,40 +4050,32 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>17:15-21:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -4010,7 +4090,7 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
@@ -4024,12 +4104,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -4038,12 +4118,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -4058,12 +4138,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -4072,12 +4152,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>19:00-19:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -4086,12 +4166,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -4106,7 +4186,7 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
@@ -4118,20 +4198,28 @@
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="n"/>
-      <c r="G15" s="3" t="n"/>
+      <c r="F15" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>18:45-22:30</t>
+        </is>
+      </c>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4158,20 +4246,28 @@
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>16:45-20:30</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>16:00-16:30</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4186,12 +4282,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -4206,12 +4302,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>17:30-21:15</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4226,12 +4322,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -4246,12 +4342,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -4266,12 +4362,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -4296,16 +4392,8 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>18:30-21:15</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -4576,38 +4664,54 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:00-16:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
@@ -4696,7 +4800,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -4730,7 +4834,7 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
@@ -4880,7 +4984,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -4894,23 +4998,15 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>(T) BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>17:30-20:45</t>
-        </is>
-      </c>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -4920,28 +5016,20 @@
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>20:30-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>14:00-22:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -4956,38 +5044,54 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>15:15-19:00</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>13:45-20:30</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -4996,12 +5100,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -5015,7 +5119,7 @@
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -5024,12 +5128,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -5044,12 +5148,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -5058,12 +5162,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -5072,12 +5176,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -5097,7 +5201,7 @@
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:45-19:45</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -5110,8 +5214,16 @@
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -5124,12 +5236,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -5138,12 +5250,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -5152,12 +5264,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -5172,12 +5284,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -5186,12 +5298,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -5200,12 +5312,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:30-19:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5220,7 +5332,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -5240,12 +5352,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>15:15-22:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5260,42 +5372,26 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>17:00-17:30</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -5308,12 +5404,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -5338,8 +5434,16 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:00</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -5575,7 +5679,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:00-18:00</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -5588,16 +5692,8 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="inlineStr">
-        <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>18:00-22:45</t>
-        </is>
-      </c>
+      <c r="B45" s="3" t="n"/>
+      <c r="C45" s="3" t="n"/>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -5610,12 +5706,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -5624,12 +5720,12 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="H46" s="3" t="n"/>
@@ -5643,21 +5739,37 @@
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>12:45-16:30</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="n"/>
-      <c r="G47" s="3" t="n"/>
+      <c r="F47" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>15:15-22:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -5738,7 +5850,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -5756,7 +5868,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -5922,12 +6034,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:30-16:15</t>
+          <t>06:30-10:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -5938,12 +6050,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:00-22:45</t>
+          <t>22:00-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -5952,12 +6064,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) PEREZ GORMAS, ANTHONY</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>16:00-19:00</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -5975,7 +6087,7 @@
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-21:15</t>
+          <t>18:45-22:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -5990,32 +6102,40 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="n"/>
-      <c r="G7" s="3" t="n"/>
+      <c r="F7" s="3" t="inlineStr">
+        <is>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>17:30-21:15</t>
+        </is>
+      </c>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:15-21:15</t>
+          <t>12:30-17:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -6030,40 +6150,32 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>08:30-12:15</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G9" s="3" t="inlineStr">
-        <is>
-          <t>16:30-20:15</t>
-        </is>
-      </c>
+      <c r="F9" s="3" t="n"/>
+      <c r="G9" s="3" t="n"/>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:45-16:30</t>
+          <t>12:45-21:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -6078,40 +6190,32 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-14:00</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>13:45-22:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -6126,32 +6230,40 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:15-22:00</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -6166,12 +6278,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -6180,12 +6292,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-21:00</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -6194,12 +6306,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -6214,12 +6326,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -6228,7 +6340,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -6242,7 +6354,7 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
@@ -6262,27 +6374,35 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
@@ -6302,40 +6422,32 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>17:30-21:15</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:15-16:00</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -6350,7 +6462,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -6390,7 +6502,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -6402,20 +6514,28 @@
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="n"/>
-      <c r="G25" s="3" t="n"/>
+      <c r="F25" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>18:30-18:45</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -6430,12 +6550,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -6462,12 +6582,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6480,16 +6600,8 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>18:30-18:45</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -6660,32 +6772,40 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>07:00-14:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>18:15-22:00</t>
+        </is>
+      </c>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -6720,7 +6840,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -6738,8 +6858,16 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="n"/>
-      <c r="C48" s="3" t="n"/>
+      <c r="B48" s="3" t="inlineStr">
+        <is>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -6804,12 +6932,12 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
@@ -6838,12 +6966,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>HUANUCO VICUÑA, ABIGAIL LUZ</t>
+          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -7009,7 +7137,7 @@
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-15:30</t>
+          <t>06:30-15:15</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -7020,12 +7148,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>(T) ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>21:15-22:45</t>
+          <t>22:00-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -7034,12 +7162,12 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -7052,12 +7180,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-21:30</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -7072,12 +7200,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -7097,7 +7225,7 @@
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -7112,12 +7240,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>08:45-17:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -7132,12 +7260,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
+          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>13:30-22:30</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -7152,40 +7280,32 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>13:45-22:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -7200,40 +7320,32 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>09:15-18:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="G13" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F13" s="3" t="n"/>
+      <c r="G13" s="3" t="n"/>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -7248,12 +7360,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -7262,12 +7374,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -7281,7 +7393,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -7296,26 +7408,42 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:45-19:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="n"/>
-      <c r="G17" s="3" t="n"/>
+      <c r="F17" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
-      <c r="B18" s="3" t="n"/>
-      <c r="C18" s="3" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>SICHA JORGE, JOSE ANGELO</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>14:30-18:15</t>
+        </is>
+      </c>
       <c r="D18" s="3" t="n"/>
       <c r="E18" s="14" t="n"/>
       <c r="F18" s="3" t="n"/>
@@ -7328,12 +7456,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-20:00</t>
+          <t>10:30-19:30</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -7360,7 +7488,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -7372,20 +7500,28 @@
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="n"/>
-      <c r="G21" s="3" t="n"/>
+      <c r="F21" s="3" t="inlineStr">
+        <is>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+        </is>
+      </c>
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -7400,7 +7536,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -7412,8 +7548,16 @@
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="n"/>
-      <c r="G23" s="3" t="n"/>
+      <c r="F23" s="3" t="inlineStr">
+        <is>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+        </is>
+      </c>
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
@@ -7425,7 +7569,7 @@
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -7440,12 +7584,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -7460,12 +7604,12 @@
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -7480,7 +7624,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -7500,12 +7644,12 @@
       <c r="A28" s="14" t="n"/>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D28" s="3" t="n"/>
@@ -7520,12 +7664,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>SUICA GOÑAZ, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>12:00-21:00</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -7538,8 +7682,16 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="n"/>
-      <c r="C30" s="3" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="C30" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -7552,12 +7704,12 @@
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>PARIONA CARRASCO, YAZMIN</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr">
         <is>
-          <t>12:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D31" s="3" t="n"/>
@@ -7582,16 +7734,8 @@
       <c r="A33" s="14" t="n">
         <v>15</v>
       </c>
-      <c r="B33" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="C33" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B33" s="3" t="n"/>
+      <c r="C33" s="3" t="n"/>
       <c r="D33" s="3" t="n"/>
       <c r="E33" s="14" t="n">
         <v>15</v>
@@ -7726,7 +7870,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -7738,42 +7882,26 @@
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:45-19:45</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
-      <c r="F45" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="G45" s="3" t="inlineStr">
-        <is>
-          <t>18:30-18:45</t>
-        </is>
-      </c>
+      <c r="F45" s="3" t="n"/>
+      <c r="G45" s="3" t="n"/>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -7782,12 +7910,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -7802,12 +7930,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -7822,7 +7950,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -7944,7 +8072,7 @@
       </c>
       <c r="F54" s="12" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>CONDORI FLORES, ROSARIO</t>
         </is>
       </c>
       <c r="G54" s="12" t="inlineStr">
@@ -7978,7 +8106,7 @@
       </c>
       <c r="F55" s="10" t="inlineStr">
         <is>
-          <t>CONDORI FLORES, ROSARIO</t>
+          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
         </is>
       </c>
       <c r="G55" s="10" t="inlineStr">

--- a/PlantillaSemanal_Exportada.xlsx
+++ b/PlantillaSemanal_Exportada.xlsx
@@ -619,7 +619,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>LUNES 27 DE ENERO 2025</t>
+          <t>LUNES 3 DE MARZO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -696,12 +696,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>(T) HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>21:45-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -710,7 +710,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -720,28 +720,20 @@
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="inlineStr">
-        <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
-        </is>
-      </c>
-      <c r="G5" s="12" t="inlineStr">
-        <is>
-          <t>20:00-22:45</t>
-        </is>
-      </c>
+      <c r="F5" s="12" t="n"/>
+      <c r="G5" s="12" t="n"/>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-16:45</t>
+          <t>13:30-22:00</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -756,40 +748,32 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>16:15-20:00</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:30-16:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -804,32 +788,40 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>SUICA GOÑAS, KEISY YVONNE</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>15:45-19:30</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -844,12 +836,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>09:15-13:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -858,12 +850,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>13:45-20:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -872,7 +864,7 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
@@ -882,8 +874,16 @@
       </c>
       <c r="D12" s="3" t="n"/>
       <c r="E12" s="14" t="n"/>
-      <c r="F12" s="3" t="n"/>
-      <c r="G12" s="3" t="n"/>
+      <c r="F12" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS FARFAN, BRYAN  ENRIQUE</t>
+        </is>
+      </c>
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H12" s="3" t="n"/>
     </row>
     <row r="13" ht="19.5" customHeight="1">
@@ -892,12 +892,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -906,7 +906,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -954,12 +954,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-21:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -973,7 +973,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -988,40 +988,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>16:15-20:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -1036,12 +1028,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -1076,12 +1068,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -1096,7 +1088,7 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
@@ -1116,12 +1108,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -1134,16 +1126,8 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>17:15-21:00</t>
-        </is>
-      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -1156,12 +1140,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>SALVATIERRA PAREJA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -1188,7 +1172,7 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
@@ -1220,12 +1204,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -1250,16 +1234,8 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>18:30-22:15</t>
-        </is>
-      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -1423,7 +1399,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -1438,7 +1414,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -1472,7 +1448,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -1486,24 +1462,24 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="H47" s="3" t="n"/>
@@ -1612,7 +1588,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>ZARATE ALAGON, FEDERICO ALEXANDER</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -1626,16 +1602,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -1717,7 +1685,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MARTES 28 DE ENERO 2025</t>
+          <t>MARTES 4 DE MARZO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -1778,12 +1746,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>07:00-16:00</t>
+          <t>07:00-10:45</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -1794,12 +1762,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>(T) PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>22:00-22:45</t>
+          <t>17:30-20:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -1808,30 +1776,38 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>(T) LEON TICONA, MARIA FERNANDA</t>
+          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>15:45-19:00</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
       <c r="E5" s="11" t="n"/>
-      <c r="F5" s="12" t="n"/>
-      <c r="G5" s="12" t="n"/>
+      <c r="F5" s="12" t="inlineStr">
+        <is>
+          <t>(T) ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="G5" s="12" t="inlineStr">
+        <is>
+          <t>20:30-22:45</t>
+        </is>
+      </c>
       <c r="H5" s="12" t="n"/>
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-22:15</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -1846,54 +1822,38 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:00</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -1902,32 +1862,40 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>17:15-21:00</t>
+          <t>14:45-18:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -1942,12 +1910,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>08:45-12:30</t>
+          <t>09:00-12:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -1956,12 +1924,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-20:30</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -1970,12 +1938,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>SUICA GOÑAS, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:15-17:00</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -1990,12 +1958,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -2004,12 +1972,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -2018,12 +1986,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -2038,40 +2006,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -2086,12 +2046,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -2100,12 +2060,12 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
         <is>
-          <t>16:30-20:15</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="H17" s="3" t="n"/>
@@ -2114,12 +2074,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:15-15:45</t>
+          <t>17:00-17:30</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -2134,12 +2094,12 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -2154,12 +2114,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>16:45-20:30</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -2174,12 +2134,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:45-15:30</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -2194,12 +2154,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>SALVATIERRA PAREJA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -2214,12 +2174,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -2232,16 +2192,8 @@
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -2252,16 +2204,8 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B25" s="3" t="n"/>
+      <c r="C25" s="3" t="n"/>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -2284,16 +2228,8 @@
       <c r="A27" s="14" t="n">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr">
-        <is>
-          <t>18:30-18:45</t>
-        </is>
-      </c>
+      <c r="B27" s="3" t="n"/>
+      <c r="C27" s="3" t="n"/>
       <c r="D27" s="3" t="n"/>
       <c r="E27" s="14" t="n">
         <v>12</v>
@@ -2505,7 +2441,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -2520,7 +2456,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -2540,7 +2476,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -2554,7 +2490,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>RAMOS FARFAN, BRYAN  ENRIQUE</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -2568,7 +2504,7 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA MALLQUI, CYNTHIA ANGELLINE</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
@@ -2580,7 +2516,7 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
@@ -2674,16 +2610,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
       <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
@@ -2694,12 +2622,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -2708,16 +2636,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -2728,12 +2648,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>ZARATE ALAGON, FEDERICO ALEXANDER</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>19:15-23:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -2799,7 +2719,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>MIÉRCOLES 29 DE ENERO 2025</t>
+          <t>MIÉRCOLES 5 DE MARZO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -2876,12 +2796,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>(T) SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>16:15-19:45</t>
+          <t>15:15-18:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -2890,7 +2810,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -2902,12 +2822,12 @@
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>(T) JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
         <is>
-          <t>19:30-22:45</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="H5" s="12" t="n"/>
@@ -2916,18 +2836,26 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>(T) IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>13:30-16:30</t>
+          <t>13:30-15:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
-      <c r="F6" s="10" t="n"/>
-      <c r="G6" s="10" t="n"/>
+      <c r="F6" s="10" t="inlineStr">
+        <is>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="G6" s="10" t="inlineStr">
+        <is>
+          <t>22:00-22:45</t>
+        </is>
+      </c>
       <c r="H6" s="10" t="n"/>
     </row>
     <row r="7" ht="19.5" customHeight="1">
@@ -2936,12 +2864,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -2950,12 +2878,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>15:15-19:00</t>
+          <t>13:45-22:00</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -2964,26 +2892,18 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>11:45-13:30</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -2992,12 +2912,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -3006,12 +2926,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>13:45-19:30</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -3020,12 +2940,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:45-13:30</t>
+          <t>14:00-17:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -3040,40 +2960,32 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
       <c r="E11" s="14" t="n">
         <v>4</v>
       </c>
-      <c r="F11" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="G11" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="F11" s="3" t="n"/>
+      <c r="G11" s="3" t="n"/>
       <c r="H11" s="3" t="n"/>
     </row>
     <row r="12" ht="19.5" customHeight="1">
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>SALVATIERRA PAREJA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -3088,26 +3000,42 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:30-19:30</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="3" t="n"/>
-      <c r="C14" s="3" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+        </is>
+      </c>
+      <c r="C14" s="3" t="inlineStr">
+        <is>
+          <t>14:15-18:00</t>
+        </is>
+      </c>
       <c r="D14" s="3" t="n"/>
       <c r="E14" s="14" t="n"/>
       <c r="F14" s="3" t="n"/>
@@ -3120,12 +3048,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -3134,12 +3062,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>SUICA GOÑAS, KEISY YVONNE</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>15:30-19:15</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -3153,7 +3081,7 @@
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:00-15:15</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -3168,40 +3096,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:30-14:15</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:00-16:15</t>
+          <t>16:00-19:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -3216,7 +3136,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -3236,12 +3156,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:15-21:00</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -3256,12 +3176,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -3320,12 +3240,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -3578,7 +3498,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -3598,7 +3518,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -3612,7 +3532,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -3638,7 +3558,7 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>RAMOS FARFAN, BRYAN  ENRIQUE</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
@@ -3752,7 +3672,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>ZARATE ALAGON, FEDERICO ALEXANDER</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -3766,16 +3686,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -3857,7 +3769,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>JUEVES 30 DE ENERO 2025</t>
+          <t>JUEVES 6 DE MARZO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -3934,7 +3846,7 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>(T) HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
@@ -3948,7 +3860,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -3960,7 +3872,7 @@
       <c r="E5" s="11" t="n"/>
       <c r="F5" s="12" t="inlineStr">
         <is>
-          <t>(T) IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="G5" s="12" t="inlineStr">
@@ -3974,7 +3886,7 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>(T) ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -3994,54 +3906,38 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>07:45-11:30</t>
+          <t>08:00-17:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
       <c r="E7" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="G7" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="F7" s="3" t="n"/>
+      <c r="G7" s="3" t="n"/>
       <c r="H7" s="3" t="n"/>
     </row>
     <row r="8" ht="19.5" customHeight="1">
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="inlineStr">
-        <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
-        </is>
-      </c>
-      <c r="G8" s="3" t="inlineStr">
-        <is>
-          <t>19:00-19:30</t>
-        </is>
-      </c>
+      <c r="F8" s="3" t="n"/>
+      <c r="G8" s="3" t="n"/>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -4050,32 +3946,40 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:00-17:00</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>TITO LAURA, NANCY FIORELLA</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>13:45-19:30</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>17:15-21:00</t>
+          <t>13:00-13:30</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -4090,12 +3994,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>SUICA GOÑAS, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -4104,7 +4008,7 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
@@ -4138,12 +4042,12 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:15-14:00</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
@@ -4152,12 +4056,12 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H13" s="3" t="n"/>
@@ -4166,12 +4070,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -4200,12 +4104,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:45-22:30</t>
+          <t>16:45-20:30</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -4214,12 +4118,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>16:00-16:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -4234,40 +4138,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>16:45-20:30</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>16:00-16:30</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -4287,7 +4183,7 @@
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
@@ -4302,12 +4198,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -4322,12 +4218,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>RAMOS FARFAN, BRYAN  ENRIQUE</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>13:00-13:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -4340,16 +4236,8 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="inlineStr">
-        <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
-        </is>
-      </c>
-      <c r="C22" s="3" t="inlineStr">
-        <is>
-          <t>17:45-21:30</t>
-        </is>
-      </c>
+      <c r="B22" s="3" t="n"/>
+      <c r="C22" s="3" t="n"/>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -4362,7 +4250,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -4392,8 +4280,16 @@
       <c r="A25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="B25" s="3" t="n"/>
-      <c r="C25" s="3" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
@@ -4629,7 +4525,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -4644,7 +4540,7 @@
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
@@ -4678,7 +4574,7 @@
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="G46" s="3" t="inlineStr">
@@ -4704,7 +4600,7 @@
       <c r="E47" s="14" t="n"/>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="G47" s="3" t="inlineStr">
@@ -4798,16 +4694,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
       <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
@@ -4818,7 +4706,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -4832,16 +4720,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -4923,7 +4803,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>VIERNES 31 DE ENERO 2025</t>
+          <t>VIERNES 7 DE MARZO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -4984,7 +4864,7 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
@@ -5024,7 +4904,7 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>(T) TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
@@ -5044,7 +4924,7 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
@@ -5058,7 +4938,7 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
+          <t>PEREZ GORMAS, ANTHONY</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
@@ -5072,7 +4952,7 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
@@ -5084,7 +4964,7 @@
       <c r="E8" s="14" t="n"/>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G8" s="3" t="inlineStr">
@@ -5100,7 +4980,7 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
@@ -5114,12 +4994,12 @@
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="G9" s="3" t="inlineStr">
         <is>
-          <t>15:45-19:30</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="H9" s="3" t="n"/>
@@ -5128,18 +5008,26 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:00-15:45</t>
+          <t>13:45-14:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
       <c r="E10" s="14" t="n"/>
-      <c r="F10" s="3" t="n"/>
-      <c r="G10" s="3" t="n"/>
+      <c r="F10" s="3" t="inlineStr">
+        <is>
+          <t>POVEA CANTARO, FARID YASSER</t>
+        </is>
+      </c>
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H10" s="3" t="n"/>
     </row>
     <row r="11" ht="19.5" customHeight="1">
@@ -5148,12 +5036,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:45-13:30</t>
+          <t>09:15-13:00</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -5162,12 +5050,12 @@
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="G11" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="H11" s="3" t="n"/>
@@ -5176,12 +5064,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -5196,32 +5084,40 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>10:00-19:00</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>19:00-22:45</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -5236,40 +5132,32 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:00-18:45</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
       <c r="E15" s="14" t="n">
         <v>6</v>
       </c>
-      <c r="F15" s="3" t="inlineStr">
-        <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
-        </is>
-      </c>
-      <c r="G15" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F15" s="3" t="n"/>
+      <c r="G15" s="3" t="n"/>
       <c r="H15" s="3" t="n"/>
     </row>
     <row r="16" ht="19.5" customHeight="1">
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -5284,7 +5172,7 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
@@ -5296,28 +5184,20 @@
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>16:30-20:15</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -5332,7 +5212,7 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
@@ -5352,12 +5232,12 @@
       <c r="A20" s="14" t="n"/>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr">
         <is>
-          <t>15:15-22:45</t>
+          <t>17:00-20:45</t>
         </is>
       </c>
       <c r="D20" s="3" t="n"/>
@@ -5372,12 +5252,12 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D21" s="3" t="n"/>
@@ -5390,8 +5270,16 @@
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
-      <c r="B22" s="3" t="n"/>
-      <c r="C22" s="3" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
+        </is>
+      </c>
+      <c r="C22" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="D22" s="3" t="n"/>
       <c r="E22" s="14" t="n"/>
       <c r="F22" s="3" t="n"/>
@@ -5404,12 +5292,12 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>17:45-21:30</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
@@ -5436,7 +5324,7 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
@@ -5679,7 +5567,7 @@
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>10:00-19:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
@@ -5692,8 +5580,16 @@
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
-      <c r="B45" s="3" t="n"/>
-      <c r="C45" s="3" t="n"/>
+      <c r="B45" s="3" t="inlineStr">
+        <is>
+          <t>SALVATIERRA PAREJA, MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
       <c r="F45" s="3" t="n"/>
@@ -5718,58 +5614,34 @@
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="inlineStr">
-        <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
-        </is>
-      </c>
-      <c r="G46" s="3" t="inlineStr">
-        <is>
-          <t>14:30-18:15</t>
-        </is>
-      </c>
+      <c r="F46" s="3" t="n"/>
+      <c r="G46" s="3" t="n"/>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>10:45-19:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
       <c r="E47" s="14" t="n"/>
-      <c r="F47" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="G47" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F47" s="3" t="n"/>
+      <c r="G47" s="3" t="n"/>
       <c r="H47" s="3" t="n"/>
     </row>
     <row r="48" ht="18.75" customHeight="1">
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>15:15-22:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -5834,12 +5706,12 @@
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>ZARATE ALAGON, FEDERICO ALEXANDER</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr">
         <is>
-          <t>07:00-10:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D53" s="3" t="n"/>
@@ -5848,16 +5720,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
       <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
@@ -5868,12 +5732,12 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
+          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
         <is>
-          <t>10:45-14:30</t>
+          <t>14:30-18:15</t>
         </is>
       </c>
       <c r="D54" s="3" t="n"/>
@@ -5882,16 +5746,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -5902,12 +5758,12 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>CARHUANCHO RAYMUNDO, JAMES JESUS</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D55" s="3" t="n"/>
@@ -5973,7 +5829,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>SÁBADO 1 DE FEBRERO 2025</t>
+          <t>SÁBADO 8 DE MARZO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -6050,12 +5906,12 @@
       </c>
       <c r="F4" s="8" t="inlineStr">
         <is>
-          <t>(T) TITO LAURA, NANCY FIORELLA</t>
+          <t>(T) ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="G4" s="8" t="inlineStr">
         <is>
-          <t>22:00-22:45</t>
+          <t>22:15-22:45</t>
         </is>
       </c>
       <c r="H4" s="8" t="n"/>
@@ -6064,7 +5920,7 @@
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
@@ -6082,12 +5938,12 @@
       <c r="A6" s="9" t="n"/>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>(T) VILCAPOMA CHILIN, JULISSA JAZMIN</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C6" s="10" t="inlineStr">
         <is>
-          <t>18:45-22:15</t>
+          <t>18:45-22:30</t>
         </is>
       </c>
       <c r="D6" s="10" t="n"/>
@@ -6102,12 +5958,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>ROCA IBARAN, MIRLA VALENTINA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>07:45-11:30</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -6116,12 +5972,12 @@
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="G7" s="3" t="inlineStr">
         <is>
-          <t>17:30-21:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="H7" s="3" t="n"/>
@@ -6130,18 +5986,26 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>12:30-17:30</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
       <c r="E8" s="14" t="n"/>
-      <c r="F8" s="3" t="n"/>
-      <c r="G8" s="3" t="n"/>
+      <c r="F8" s="3" t="inlineStr">
+        <is>
+          <t>ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
+        </is>
+      </c>
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:15</t>
+        </is>
+      </c>
       <c r="H8" s="3" t="n"/>
     </row>
     <row r="9" ht="19.5" customHeight="1">
@@ -6150,32 +6014,40 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:30-12:15</t>
+          <t>08:00-11:45</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
       <c r="E9" s="14" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="3" t="n"/>
-      <c r="G9" s="3" t="n"/>
+      <c r="F9" s="3" t="inlineStr">
+        <is>
+          <t>PEREZ GORMAS, ANTHONY</t>
+        </is>
+      </c>
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>17:15-21:00</t>
+        </is>
+      </c>
       <c r="H9" s="3" t="n"/>
     </row>
     <row r="10" ht="19.5" customHeight="1">
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>IDME GOMEZ, MILAGROS</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>12:45-21:45</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -6190,12 +6062,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>08:45-17:45</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -6210,12 +6082,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>SUICA GOÑAS, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:00</t>
+          <t>17:45-21:30</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -6230,7 +6102,7 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
@@ -6244,7 +6116,7 @@
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
         </is>
       </c>
       <c r="G13" s="3" t="inlineStr">
@@ -6258,12 +6130,12 @@
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>14:00-17:45</t>
+          <t>13:30-17:15</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -6278,12 +6150,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -6292,12 +6164,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:30-22:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -6306,12 +6178,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -6326,40 +6198,32 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:15-14:00</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
       <c r="E17" s="14" t="n">
         <v>7</v>
       </c>
-      <c r="F17" s="3" t="inlineStr">
-        <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
-        </is>
-      </c>
-      <c r="G17" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F17" s="3" t="n"/>
+      <c r="G17" s="3" t="n"/>
       <c r="H17" s="3" t="n"/>
     </row>
     <row r="18" ht="19.5" customHeight="1">
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>NEIRA CARMEN, MIRIAM DALESKA</t>
+          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -6374,42 +6238,26 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:15-19:15</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="inlineStr">
-        <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
-        </is>
-      </c>
-      <c r="G19" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F19" s="3" t="n"/>
+      <c r="G19" s="3" t="n"/>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="inlineStr">
-        <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
-        </is>
-      </c>
-      <c r="C20" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="B20" s="3" t="n"/>
+      <c r="C20" s="3" t="n"/>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -6442,12 +6290,12 @@
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>16:15-20:00</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -6462,7 +6310,7 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
@@ -6482,12 +6330,12 @@
       <c r="A24" s="14" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D24" s="3" t="n"/>
@@ -6502,42 +6350,26 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:00-19:45</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
       <c r="E25" s="14" t="n">
         <v>11</v>
       </c>
-      <c r="F25" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G25" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F25" s="3" t="n"/>
+      <c r="G25" s="3" t="n"/>
       <c r="H25" s="3" t="n"/>
     </row>
     <row r="26" ht="18.75" customHeight="1">
       <c r="A26" s="14" t="n"/>
-      <c r="B26" s="3" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C26" s="3" t="inlineStr">
-        <is>
-          <t>18:30-18:45</t>
-        </is>
-      </c>
+      <c r="B26" s="3" t="n"/>
+      <c r="C26" s="3" t="n"/>
       <c r="D26" s="3" t="n"/>
       <c r="E26" s="14" t="n"/>
       <c r="F26" s="3" t="n"/>
@@ -6550,12 +6382,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-15:00</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -6568,8 +6400,16 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="n"/>
-      <c r="C28" s="3" t="n"/>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>LEON TICONA, MARIA FERNANDA</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -6582,12 +6422,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>POVEA CANTARO, FARID YASSER</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -6772,40 +6612,32 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>MARTINEZ PAZ, ROCIO ESPERANZA</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
         <is>
-          <t>07:00-14:30</t>
+          <t>09:00-18:00</t>
         </is>
       </c>
       <c r="D44" s="3" t="n"/>
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="inlineStr">
-        <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
-        </is>
-      </c>
-      <c r="G44" s="3" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F44" s="3" t="n"/>
+      <c r="G44" s="3" t="n"/>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>SALVATIERRA PAREJA, MARCO ANTONIO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
@@ -6820,12 +6652,12 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
         <is>
-          <t>07:45-16:45</t>
+          <t>07:00-15:45</t>
         </is>
       </c>
       <c r="D46" s="3" t="n"/>
@@ -6840,12 +6672,12 @@
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>RAMOS FARFAN, BRYAN  ENRIQUE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>15:45-19:30</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -6858,16 +6690,8 @@
       <c r="A48" s="14" t="n">
         <v>23</v>
       </c>
-      <c r="B48" s="3" t="inlineStr">
-        <is>
-          <t>YANQUI BRAVO, MIRIAN LUZ</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="B48" s="3" t="n"/>
+      <c r="C48" s="3" t="n"/>
       <c r="D48" s="3" t="n"/>
       <c r="E48" s="14" t="n">
         <v>23</v>
@@ -6946,16 +6770,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F53" s="8" t="inlineStr">
-        <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
-        </is>
-      </c>
-      <c r="G53" s="8" t="inlineStr">
-        <is>
-          <t>18:15-22:00</t>
-        </is>
-      </c>
+      <c r="F53" s="8" t="n"/>
+      <c r="G53" s="8" t="n"/>
       <c r="H53" s="8" t="n"/>
     </row>
     <row r="54" ht="18.75" customHeight="1">
@@ -6966,7 +6782,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -6980,16 +6796,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -7000,7 +6808,7 @@
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>ZARATE ALAGON, FEDERICO ALEXANDER</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr">
@@ -7071,7 +6879,7 @@
     <row r="2" ht="19.5" customHeight="1">
       <c r="A2" s="14" t="inlineStr">
         <is>
-          <t>DOMINGO 2 DE FEBRERO 2025</t>
+          <t>DOMINGO 9 DE MARZO 2025</t>
         </is>
       </c>
       <c r="B2" s="16" t="n"/>
@@ -7132,12 +6940,12 @@
       </c>
       <c r="B4" s="8" t="inlineStr">
         <is>
-          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
+          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
         </is>
       </c>
       <c r="C4" s="8" t="inlineStr">
         <is>
-          <t>06:30-15:15</t>
+          <t>06:30-14:00</t>
         </is>
       </c>
       <c r="D4" s="8" t="n"/>
@@ -7146,28 +6954,20 @@
           <t>1 PREF</t>
         </is>
       </c>
-      <c r="F4" s="8" t="inlineStr">
-        <is>
-          <t>(T) ROMERO HAÑARI, VENUS ANUSKA</t>
-        </is>
-      </c>
-      <c r="G4" s="8" t="inlineStr">
-        <is>
-          <t>22:00-22:45</t>
-        </is>
-      </c>
+      <c r="F4" s="8" t="n"/>
+      <c r="G4" s="8" t="n"/>
       <c r="H4" s="8" t="n"/>
     </row>
     <row r="5" ht="18.75" customHeight="1">
       <c r="A5" s="11" t="n"/>
       <c r="B5" s="12" t="inlineStr">
         <is>
-          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+          <t>TITO LAURA, NANCY FIORELLA</t>
         </is>
       </c>
       <c r="C5" s="12" t="inlineStr">
         <is>
-          <t>15:00-18:45</t>
+          <t>13:45-22:45</t>
         </is>
       </c>
       <c r="D5" s="12" t="n"/>
@@ -7178,16 +6978,8 @@
     </row>
     <row r="6" ht="19.5" customHeight="1">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="10" t="inlineStr">
-        <is>
-          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
-        </is>
-      </c>
-      <c r="C6" s="10" t="inlineStr">
-        <is>
-          <t>18:30-22:15</t>
-        </is>
-      </c>
+      <c r="B6" s="10" t="n"/>
+      <c r="C6" s="10" t="n"/>
       <c r="D6" s="10" t="n"/>
       <c r="E6" s="9" t="n"/>
       <c r="F6" s="10" t="n"/>
@@ -7200,12 +6992,12 @@
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
+          <t>JIMENEZ VERGARA, ADRIAN MARCELO</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr">
         <is>
-          <t>08:00-11:45</t>
+          <t>08:15-12:00</t>
         </is>
       </c>
       <c r="D7" s="3" t="n"/>
@@ -7220,12 +7012,12 @@
       <c r="A8" s="14" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>BARRIENTOS JERI, MILAGROS NICOL</t>
+          <t>ROA ZARATE, ELIZABETH LUCY</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>12:15-21:15</t>
         </is>
       </c>
       <c r="D8" s="3" t="n"/>
@@ -7240,12 +7032,12 @@
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>JIMENEZ TORERO, ASTRID GERALDINE</t>
+          <t>CUSI QUISPE, ANDREA ESTEFANY</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr">
         <is>
-          <t>08:45-17:45</t>
+          <t>08:45-12:30</t>
         </is>
       </c>
       <c r="D9" s="3" t="n"/>
@@ -7260,12 +7052,12 @@
       <c r="A10" s="14" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>IDELFONSO MOTTA, JHOSSEP ANGELO</t>
+          <t>LOPEZ SANCHEZ, NELLY ANDREA</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>13:00-22:00</t>
         </is>
       </c>
       <c r="D10" s="3" t="n"/>
@@ -7280,12 +7072,12 @@
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
+          <t>QUIQUIA RICALDE, LILIA MARIA</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr">
         <is>
-          <t>09:00-12:45</t>
+          <t>09:30-18:30</t>
         </is>
       </c>
       <c r="D11" s="3" t="n"/>
@@ -7300,12 +7092,12 @@
       <c r="A12" s="14" t="n"/>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
+          <t>VILCAPOMA CHILIN, JULISSA JAZMIN</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr">
         <is>
-          <t>13:45-22:00</t>
+          <t>18:30-22:15</t>
         </is>
       </c>
       <c r="D12" s="3" t="n"/>
@@ -7320,32 +7112,40 @@
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>RICAPA RAMOS, MILAGROS PATRICIA</t>
+          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr">
         <is>
-          <t>09:15-18:15</t>
+          <t>09:30-13:15</t>
         </is>
       </c>
       <c r="D13" s="3" t="n"/>
       <c r="E13" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F13" s="3" t="n"/>
-      <c r="G13" s="3" t="n"/>
+      <c r="F13" s="3" t="inlineStr">
+        <is>
+          <t>RAMOS FARFAN, BRYAN  ENRIQUE</t>
+        </is>
+      </c>
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>18:00-21:45</t>
+        </is>
+      </c>
       <c r="H13" s="3" t="n"/>
     </row>
     <row r="14" ht="19.5" customHeight="1">
       <c r="A14" s="14" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>PEREZ GORMAS, ANTHONY</t>
+          <t>SICHA JORGE, JOSE ANGELO</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr">
         <is>
-          <t>18:15-22:00</t>
+          <t>14:15-18:00</t>
         </is>
       </c>
       <c r="D14" s="3" t="n"/>
@@ -7360,12 +7160,12 @@
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
+          <t>RAMOS TINOCO, JORDAN JAVIER</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr">
         <is>
-          <t>10:00-13:45</t>
+          <t>09:45-13:30</t>
         </is>
       </c>
       <c r="D15" s="3" t="n"/>
@@ -7374,12 +7174,12 @@
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="G15" s="3" t="inlineStr">
         <is>
-          <t>18:00-21:45</t>
+          <t>19:00-22:45</t>
         </is>
       </c>
       <c r="H15" s="3" t="n"/>
@@ -7388,12 +7188,12 @@
       <c r="A16" s="14" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
+          <t>LEON TICONA, MARIA FERNANDA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr">
         <is>
-          <t>14:15-18:00</t>
+          <t>15:00-18:45</t>
         </is>
       </c>
       <c r="D16" s="3" t="n"/>
@@ -7408,12 +7208,12 @@
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
+          <t>TARDILLO COPA, YOVANNA MELISSA</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr">
         <is>
-          <t>10:30-14:15</t>
+          <t>10:00-13:45</t>
         </is>
       </c>
       <c r="D17" s="3" t="n"/>
@@ -7422,7 +7222,7 @@
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>LA ROSA EUSEBIO, SHADIA SHAMIRA</t>
         </is>
       </c>
       <c r="G17" s="3" t="inlineStr">
@@ -7436,12 +7236,12 @@
       <c r="A18" s="14" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>SICHA JORGE, JOSE ANGELO</t>
+          <t>ILDEFONSO MOTTA, JHOSSEP ANGELO</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr">
         <is>
-          <t>14:30-18:15</t>
+          <t>15:15-19:00</t>
         </is>
       </c>
       <c r="D18" s="3" t="n"/>
@@ -7456,26 +7256,42 @@
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>RAMOS TINOCO, JORDAN JAVIER</t>
+          <t>YANQUI BRAVO, MIRIAN LUZ</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr">
         <is>
-          <t>10:30-19:30</t>
+          <t>11:00-14:45</t>
         </is>
       </c>
       <c r="D19" s="3" t="n"/>
       <c r="E19" s="14" t="n">
         <v>8</v>
       </c>
-      <c r="F19" s="3" t="n"/>
-      <c r="G19" s="3" t="n"/>
+      <c r="F19" s="3" t="inlineStr">
+        <is>
+          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
+        </is>
+      </c>
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>19:00-22:45</t>
+        </is>
+      </c>
       <c r="H19" s="3" t="n"/>
     </row>
     <row r="20" ht="19.5" customHeight="1">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="3" t="n"/>
-      <c r="C20" s="3" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>IDME GOMEZ, MILAGROS</t>
+        </is>
+      </c>
+      <c r="C20" s="3" t="inlineStr">
+        <is>
+          <t>15:15-19:00</t>
+        </is>
+      </c>
       <c r="D20" s="3" t="n"/>
       <c r="E20" s="14" t="n"/>
       <c r="F20" s="3" t="n"/>
@@ -7488,7 +7304,7 @@
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RAMOS FARFAN, BRYAN ENRIQUE</t>
+          <t>BRANCACHO RAMIREZ, BRINDY</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr">
@@ -7500,28 +7316,20 @@
       <c r="E21" s="14" t="n">
         <v>9</v>
       </c>
-      <c r="F21" s="3" t="inlineStr">
-        <is>
-          <t>HUANCAS SHUAN, JOSELYN JAZMIN</t>
-        </is>
-      </c>
-      <c r="G21" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F21" s="3" t="n"/>
+      <c r="G21" s="3" t="n"/>
       <c r="H21" s="3" t="n"/>
     </row>
     <row r="22" ht="19.5" customHeight="1">
       <c r="A22" s="14" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr">
         <is>
-          <t>14:45-18:30</t>
+          <t>17:15-21:00</t>
         </is>
       </c>
       <c r="D22" s="3" t="n"/>
@@ -7536,42 +7344,26 @@
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>IDME GOMEZ, MILAGROS</t>
+          <t>ROMERO HAÑARI, VENUS ANUSKA</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:15-20:15</t>
         </is>
       </c>
       <c r="D23" s="3" t="n"/>
       <c r="E23" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="F23" s="3" t="inlineStr">
-        <is>
-          <t>ZAPATA VILLANUEVA, FIORELLA YASMIN</t>
-        </is>
-      </c>
-      <c r="G23" s="3" t="inlineStr">
-        <is>
-          <t>19:00-22:45</t>
-        </is>
-      </c>
+      <c r="F23" s="3" t="n"/>
+      <c r="G23" s="3" t="n"/>
       <c r="H23" s="3" t="n"/>
     </row>
     <row r="24" ht="18.75" customHeight="1">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="3" t="inlineStr">
-        <is>
-          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>15:15-19:00</t>
-        </is>
-      </c>
+      <c r="B24" s="3" t="n"/>
+      <c r="C24" s="3" t="n"/>
       <c r="D24" s="3" t="n"/>
       <c r="E24" s="14" t="n"/>
       <c r="F24" s="3" t="n"/>
@@ -7584,12 +7376,12 @@
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>BRANCACHO RAMIREZ, BRINDY</t>
+          <t>HUAMANI HUAMAN, MARICRUZ DESIDE</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr">
         <is>
-          <t>11:00-14:45</t>
+          <t>11:30-15:15</t>
         </is>
       </c>
       <c r="D25" s="3" t="n"/>
@@ -7604,12 +7396,12 @@
       <c r="A26" s="14" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>GARRIDO SOTO, VICTORIA CELESTE</t>
+          <t>FABIAN VALDIVIA, LINDSAY ZIYI</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr">
         <is>
-          <t>17:00-20:45</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D26" s="3" t="n"/>
@@ -7624,12 +7416,12 @@
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>CASAPAICO RIVERA, ENZO MANUEL</t>
+          <t>MAYTA QUINTANA, ANDY KEVIN</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr">
         <is>
-          <t>11:15-15:00</t>
+          <t>18:00-21:45</t>
         </is>
       </c>
       <c r="D27" s="3" t="n"/>
@@ -7642,16 +7434,8 @@
     </row>
     <row r="28" ht="18.75" customHeight="1">
       <c r="A28" s="14" t="n"/>
-      <c r="B28" s="3" t="inlineStr">
-        <is>
-          <t>BONILLA SANCHEZ, RAUL FERNANDO</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>17:00-20:45</t>
-        </is>
-      </c>
+      <c r="B28" s="3" t="n"/>
+      <c r="C28" s="3" t="n"/>
       <c r="D28" s="3" t="n"/>
       <c r="E28" s="14" t="n"/>
       <c r="F28" s="3" t="n"/>
@@ -7664,12 +7448,12 @@
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>SUICA GOÑAZ, KEISY YVONNE</t>
+          <t>POVEA CANTARO, FARID YASSER</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr">
         <is>
-          <t>11:30-15:15</t>
+          <t>18:15-22:00</t>
         </is>
       </c>
       <c r="D29" s="3" t="n"/>
@@ -7682,16 +7466,8 @@
     </row>
     <row r="30" ht="18.75" customHeight="1">
       <c r="A30" s="14" t="n"/>
-      <c r="B30" s="3" t="inlineStr">
-        <is>
-          <t>MAYTA QUINTANA, ANDY KEVIN</t>
-        </is>
-      </c>
-      <c r="C30" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B30" s="3" t="n"/>
+      <c r="C30" s="3" t="n"/>
       <c r="D30" s="3" t="n"/>
       <c r="E30" s="14" t="n"/>
       <c r="F30" s="3" t="n"/>
@@ -7702,16 +7478,8 @@
       <c r="A31" s="14" t="n">
         <v>14</v>
       </c>
-      <c r="B31" s="3" t="inlineStr">
-        <is>
-          <t>LEON TICONA, MARIA FERNANDA</t>
-        </is>
-      </c>
-      <c r="C31" s="3" t="inlineStr">
-        <is>
-          <t>18:00-21:45</t>
-        </is>
-      </c>
+      <c r="B31" s="3" t="n"/>
+      <c r="C31" s="3" t="n"/>
       <c r="D31" s="3" t="n"/>
       <c r="E31" s="14" t="n">
         <v>14</v>
@@ -7870,7 +7638,7 @@
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ROCA IBARAN, MIRLA VALENTINA</t>
+          <t>ALVITE CORNEJO, ANGIE LUCERO</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr">
@@ -7882,26 +7650,42 @@
       <c r="E44" s="14" t="n">
         <v>21</v>
       </c>
-      <c r="F44" s="3" t="n"/>
-      <c r="G44" s="3" t="n"/>
+      <c r="F44" s="3" t="inlineStr">
+        <is>
+          <t>HUAMANI LOPEZ, DREYDI BELINDA</t>
+        </is>
+      </c>
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>14:45-18:30</t>
+        </is>
+      </c>
       <c r="H44" s="3" t="n"/>
     </row>
     <row r="45" ht="18.75" customHeight="1">
       <c r="A45" s="14" t="n"/>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>QUIQUIA RICALDE, LILIA MARIA</t>
+          <t>SOTO VELAZCO, EMIR ALESSANDRO</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr">
         <is>
-          <t>10:45-19:45</t>
+          <t>10:45-14:30</t>
         </is>
       </c>
       <c r="D45" s="3" t="n"/>
       <c r="E45" s="14" t="n"/>
-      <c r="F45" s="3" t="n"/>
-      <c r="G45" s="3" t="n"/>
+      <c r="F45" s="3" t="inlineStr">
+        <is>
+          <t>SALVATIERRA PAREJA, MARCO ANTONIO</t>
+        </is>
+      </c>
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>18:30-22:15</t>
+        </is>
+      </c>
       <c r="H45" s="3" t="n"/>
     </row>
     <row r="46" ht="18.75" customHeight="1">
@@ -7910,7 +7694,7 @@
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>TARDILLO COPA, YOVANNA MELISSA</t>
+          <t>QUISPE MONDRAGON, JUAN ALFONSO</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr">
@@ -7922,20 +7706,28 @@
       <c r="E46" s="14" t="n">
         <v>22</v>
       </c>
-      <c r="F46" s="3" t="n"/>
-      <c r="G46" s="3" t="n"/>
+      <c r="F46" s="3" t="inlineStr">
+        <is>
+          <t>MUÑOZ SOTOMAYOR, MIRIAN RAQUEL</t>
+        </is>
+      </c>
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>16:15-20:00</t>
+        </is>
+      </c>
       <c r="H46" s="3" t="n"/>
     </row>
     <row r="47" ht="18.75" customHeight="1">
       <c r="A47" s="14" t="n"/>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>TITO LAURA, NANCY FIORELLA</t>
+          <t>SUICA GOÑAS, KEISY YVONNE</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr">
         <is>
-          <t>13:00-22:00</t>
+          <t>12:00-15:45</t>
         </is>
       </c>
       <c r="D47" s="3" t="n"/>
@@ -7950,7 +7742,7 @@
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ROA ZARATE, ELIZABETH LUCY</t>
+          <t>ALARCON SANDOVAL, ADRIANA FERNANDA</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr">
@@ -8038,7 +7830,7 @@
       </c>
       <c r="F53" s="8" t="inlineStr">
         <is>
-          <t>MACHCO HUARCA, NICOLAS AXEL</t>
+          <t>ZARATE ALAGON, FEDERICO ALEXANDER</t>
         </is>
       </c>
       <c r="G53" s="8" t="inlineStr">
@@ -8056,7 +7848,7 @@
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>VILLANUEVA RAMIREZ, KAREN SOFIA</t>
+          <t>MACHCO HUARCA, NICOLAS AXEL</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr">
@@ -8070,16 +7862,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F54" s="12" t="inlineStr">
-        <is>
-          <t>CONDORI FLORES, ROSARIO</t>
-        </is>
-      </c>
-      <c r="G54" s="12" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F54" s="12" t="n"/>
+      <c r="G54" s="12" t="n"/>
       <c r="H54" s="12" t="n"/>
     </row>
     <row r="55" ht="18.75" customHeight="1">
@@ -8104,16 +7888,8 @@
           <t>25-30</t>
         </is>
       </c>
-      <c r="F55" s="10" t="inlineStr">
-        <is>
-          <t>CHAHUA BENITO, JEFFERSON ALVARO</t>
-        </is>
-      </c>
-      <c r="G55" s="10" t="inlineStr">
-        <is>
-          <t>19:15-23:00</t>
-        </is>
-      </c>
+      <c r="F55" s="10" t="n"/>
+      <c r="G55" s="10" t="n"/>
       <c r="H55" s="10" t="n"/>
     </row>
   </sheetData>
